--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2678229.649808997</v>
+        <v>-2678896.267245417</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>38.038344189707</v>
       </c>
       <c r="H11" t="n">
-        <v>38.03834418970696</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>36.42873081279467</v>
+        <v>36.42873081279474</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
     </row>
     <row r="12">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="S12" t="n">
-        <v>59.25215683706188</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.83321277868788</v>
+        <v>10.83321277868796</v>
       </c>
       <c r="U12" t="n">
-        <v>33.11619900411939</v>
+        <v>33.11619900411947</v>
       </c>
       <c r="V12" t="n">
-        <v>36.53747918923756</v>
+        <v>36.53747918923764</v>
       </c>
       <c r="W12" t="n">
-        <v>84.54481721446598</v>
+        <v>62.59314185084699</v>
       </c>
       <c r="X12" t="n">
-        <v>84.54481721446598</v>
+        <v>13.201472713306</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.27284440786093</v>
+        <v>29.37823661627667</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.23138271479807</v>
+        <v>31.23138271479815</v>
       </c>
       <c r="T13" t="n">
-        <v>19.62677120258693</v>
+        <v>19.62677120258701</v>
       </c>
       <c r="U13" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="V13" t="n">
-        <v>40.99757345828522</v>
+        <v>40.9975734582853</v>
       </c>
       <c r="W13" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="X13" t="n">
-        <v>17.80801368207784</v>
+        <v>17.80801368207793</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.02983108800373</v>
+        <v>13.02983108800382</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>51.3390900131887</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="F14" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.12798498931289</v>
+        <v>23.12798498931297</v>
       </c>
       <c r="T14" t="n">
-        <v>18.30111863217991</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>33.03797138100879</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="Y14" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,25 +1689,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>68.00235948737502</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.83321277868788</v>
+        <v>10.83321277868796</v>
       </c>
       <c r="U15" t="n">
-        <v>33.11619900411939</v>
+        <v>33.11619900411947</v>
       </c>
       <c r="V15" t="n">
-        <v>36.53747918923756</v>
+        <v>36.53747918923764</v>
       </c>
       <c r="W15" t="n">
-        <v>62.59314185084691</v>
+        <v>62.59314185084699</v>
       </c>
       <c r="X15" t="n">
-        <v>13.20147271330592</v>
+        <v>13.201472713306</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.27284440786093</v>
+        <v>29.37823661627665</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>31.23138271479807</v>
+        <v>31.23138271479815</v>
       </c>
       <c r="T16" t="n">
-        <v>19.62677120258693</v>
+        <v>19.62677120258701</v>
       </c>
       <c r="U16" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="V16" t="n">
-        <v>40.99757345828522</v>
+        <v>40.9975734582853</v>
       </c>
       <c r="W16" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="X16" t="n">
-        <v>17.80801368207784</v>
+        <v>17.80801368207793</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.02983108800373</v>
+        <v>13.02983108800382</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.6543480575009</v>
+        <v>38.65434805750084</v>
       </c>
       <c r="C17" t="n">
-        <v>14.77260506084639</v>
+        <v>14.77260506084633</v>
       </c>
       <c r="D17" t="n">
-        <v>2.339267321894852</v>
+        <v>2.339267321894795</v>
       </c>
       <c r="E17" t="n">
-        <v>36.04601974130372</v>
+        <v>36.04601974130367</v>
       </c>
       <c r="F17" t="n">
-        <v>67.76635731968105</v>
+        <v>67.76635731968099</v>
       </c>
       <c r="G17" t="n">
-        <v>83.39309993609689</v>
+        <v>83.3930999360968</v>
       </c>
       <c r="H17" t="n">
-        <v>11.4637606306505</v>
+        <v>11.46376063065043</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.463571505434459</v>
+        <v>2.463571505434402</v>
       </c>
       <c r="X17" t="n">
-        <v>24.3498219743737</v>
+        <v>24.34982197437364</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.85267509811746</v>
+        <v>46.8526750981174</v>
       </c>
     </row>
     <row r="18">
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>74.4670750025016</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>16.57010772354259</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
     </row>
     <row r="19">
@@ -2147,7 +2147,7 @@
         <v>24.3498219743737</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.85267509811746</v>
+        <v>46.85267509811715</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2169,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>74.4670750025016</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="S21" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>16.57010772354257</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>67.76635731968105</v>
       </c>
       <c r="G23" t="n">
-        <v>83.39309993609689</v>
+        <v>83.39309993609686</v>
       </c>
       <c r="H23" t="n">
-        <v>11.4637606306505</v>
+        <v>11.46376063065048</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>74.4670750025016</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>84.54481721446598</v>
+        <v>16.57010772354257</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2467968077939</v>
+        <v>161.246796807794</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3650538111394</v>
+        <v>137.3650538111395</v>
       </c>
       <c r="D26" t="n">
         <v>124.9317160721879</v>
@@ -2567,10 +2567,10 @@
         <v>190.3588060699741</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9855486863899</v>
+        <v>205.98554868639</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0562093809435</v>
+        <v>134.0562093809436</v>
       </c>
       <c r="I26" t="n">
         <v>27.69972896891997</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39898314543819</v>
+        <v>14.39898314543821</v>
       </c>
       <c r="T26" t="n">
-        <v>9.572116788305209</v>
+        <v>9.572116788305236</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30912346611282</v>
+        <v>37.30912346611285</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0393400391126</v>
+        <v>108.0393400391127</v>
       </c>
       <c r="W26" t="n">
         <v>125.0560202557275</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9422707246667</v>
+        <v>146.9422707246668</v>
       </c>
       <c r="Y26" t="n">
         <v>169.4451238484105</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>74.89312569208626</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R27" t="n">
         <v>134.3151594521598</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.104210934813179</v>
+        <v>2.104210934813207</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38719716024469</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.86414000697224</v>
       </c>
       <c r="X27" t="n">
-        <v>4.47247086943122</v>
+        <v>4.472470869431248</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54384256398623</v>
+        <v>27.54000097711333</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50238087092337</v>
+        <v>22.5023808709234</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89776935871223</v>
+        <v>10.89776935871225</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81581537059127</v>
+        <v>75.8158153705913</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26857161441052</v>
+        <v>32.26857161441055</v>
       </c>
       <c r="W28" t="n">
-        <v>77.47026351929594</v>
+        <v>77.47026351929597</v>
       </c>
       <c r="X28" t="n">
-        <v>9.079011838203144</v>
+        <v>9.079011838203172</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.300829244129034</v>
+        <v>4.300829244129062</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2467968077939</v>
+        <v>161.246796807794</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3650538111394</v>
+        <v>137.3650538111395</v>
       </c>
       <c r="D29" t="n">
         <v>124.9317160721879</v>
@@ -2804,10 +2804,10 @@
         <v>190.3588060699741</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9855486863899</v>
+        <v>205.98554868639</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0562093809435</v>
+        <v>134.0562093809436</v>
       </c>
       <c r="I29" t="n">
         <v>27.69972896891997</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39898314543819</v>
+        <v>14.39898314543821</v>
       </c>
       <c r="T29" t="n">
-        <v>9.572116788305209</v>
+        <v>9.572116788305236</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30912346611282</v>
+        <v>37.30912346611285</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0393400391126</v>
+        <v>108.0393400391127</v>
       </c>
       <c r="W29" t="n">
         <v>125.0560202557275</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9422707246667</v>
+        <v>146.9422707246668</v>
       </c>
       <c r="Y29" t="n">
         <v>169.4451238484105</v>
@@ -2868,31 +2868,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>114.1383264154689</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>110.5074591535849</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7380872222379</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>107.1390224876151</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.104210934813179</v>
+        <v>2.104210934813207</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38719716024469</v>
+        <v>24.38719716024472</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80847734536286</v>
+        <v>27.80847734536289</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.86414000697224</v>
       </c>
       <c r="X30" t="n">
-        <v>4.47247086943122</v>
+        <v>4.472470869431248</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.54384256398623</v>
+        <v>10.54384256398626</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50238087092337</v>
+        <v>22.5023808709234</v>
       </c>
       <c r="T31" t="n">
-        <v>10.89776935871223</v>
+        <v>10.89776935871225</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81581537059127</v>
+        <v>75.8158153705913</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26857161441052</v>
+        <v>32.26857161441055</v>
       </c>
       <c r="W31" t="n">
-        <v>77.47026351929594</v>
+        <v>77.47026351929597</v>
       </c>
       <c r="X31" t="n">
-        <v>9.079011838203144</v>
+        <v>9.079011838203172</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.300829244129034</v>
+        <v>4.300829244129062</v>
       </c>
     </row>
     <row r="32">
@@ -3032,22 +3032,22 @@
         <v>137.3650538111394</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9317160721879</v>
+        <v>124.9317160721878</v>
       </c>
       <c r="E32" t="n">
         <v>158.6384684915967</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3588060699741</v>
+        <v>190.358806069974</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9855486863899</v>
+        <v>205.9855486863898</v>
       </c>
       <c r="H32" t="n">
         <v>134.0562093809435</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69972896891994</v>
+        <v>27.6997289689199</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39898314543817</v>
+        <v>14.39898314543813</v>
       </c>
       <c r="T32" t="n">
-        <v>9.572116788305181</v>
+        <v>9.57211678830515</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30912346611279</v>
+        <v>37.30912346611277</v>
       </c>
       <c r="V32" t="n">
         <v>108.0393400391126</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0560202557275</v>
+        <v>125.0560202557274</v>
       </c>
       <c r="X32" t="n">
         <v>146.9422707246667</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4451238484105</v>
+        <v>169.4451238484104</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>58.82304252127226</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.85943295535306</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.037534323606021</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>214.9446545048526</v>
+        <v>2.104210934813122</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38719716024466</v>
+        <v>24.38719716024464</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.8084773453628</v>
       </c>
       <c r="W33" t="n">
-        <v>53.86414000697218</v>
+        <v>53.86414000697215</v>
       </c>
       <c r="X33" t="n">
-        <v>207.6432216900713</v>
+        <v>4.472470869431163</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5438425639862</v>
+        <v>10.54384256398617</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50238087092335</v>
+        <v>22.50238087092331</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8977693587122</v>
+        <v>10.89776935871217</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81581537059124</v>
+        <v>75.81581537059121</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26857161441049</v>
+        <v>32.26857161441046</v>
       </c>
       <c r="W34" t="n">
-        <v>77.47026351929591</v>
+        <v>77.47026351929588</v>
       </c>
       <c r="X34" t="n">
-        <v>9.079011838203115</v>
+        <v>9.079011838203087</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.300829244129005</v>
+        <v>4.300829244128977</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>110.6615611723161</v>
       </c>
       <c r="I35" t="n">
-        <v>4.305080760292554</v>
+        <v>4.305080760292526</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,13 +3351,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.1673038525089</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>49.5822865208593</v>
       </c>
     </row>
     <row r="37">
@@ -3521,7 +3521,7 @@
         <v>110.6615611723161</v>
       </c>
       <c r="I38" t="n">
-        <v>4.305080760292554</v>
+        <v>4.305080760292526</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>38.814629394159</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.037534323606021</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>106.796594546351</v>
+        <v>0.9925489516172765</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>4.413829136735444</v>
       </c>
       <c r="W39" t="n">
         <v>30.46949179834479</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.8521485991665</v>
+        <v>137.8521485991664</v>
       </c>
       <c r="C41" t="n">
-        <v>113.970405602512</v>
+        <v>113.9704056025119</v>
       </c>
       <c r="D41" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635604</v>
       </c>
       <c r="E41" t="n">
-        <v>135.2438202829694</v>
+        <v>135.2438202829693</v>
       </c>
       <c r="F41" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613466</v>
       </c>
       <c r="G41" t="n">
-        <v>182.5909004777625</v>
+        <v>182.5909004777624</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6615611723161</v>
+        <v>110.661561172316</v>
       </c>
       <c r="I41" t="n">
-        <v>4.305080760292554</v>
+        <v>4.305080760292441</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.91447525748541</v>
+        <v>13.91447525748532</v>
       </c>
       <c r="V41" t="n">
-        <v>84.64469183048521</v>
+        <v>84.64469183048513</v>
       </c>
       <c r="W41" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471</v>
       </c>
       <c r="X41" t="n">
-        <v>123.5476225160393</v>
+        <v>123.5476225160392</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.0504756397831</v>
+        <v>146.050475639783</v>
       </c>
     </row>
     <row r="42">
@@ -3822,10 +3822,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9925489516172765</v>
+        <v>0.9925489516171913</v>
       </c>
       <c r="V42" t="n">
-        <v>4.413829136735444</v>
+        <v>4.413829136735359</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>30.46949179834471</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>146.0813542198618</v>
       </c>
       <c r="Y42" t="n">
-        <v>126.6128261356052</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196377</v>
       </c>
       <c r="V43" t="n">
-        <v>8.873923405783103</v>
+        <v>8.873923405783017</v>
       </c>
       <c r="W43" t="n">
-        <v>54.07561531066852</v>
+        <v>54.07561531066844</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>113.970405602512</v>
       </c>
       <c r="D44" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635604</v>
       </c>
       <c r="E44" t="n">
-        <v>135.2438202829694</v>
+        <v>135.2438202829693</v>
       </c>
       <c r="F44" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613466</v>
       </c>
       <c r="G44" t="n">
         <v>182.5909004777625</v>
@@ -3995,7 +3995,7 @@
         <v>110.6615611723161</v>
       </c>
       <c r="I44" t="n">
-        <v>4.305080760292554</v>
+        <v>4.305080760292469</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.91447525748541</v>
+        <v>13.91447525748535</v>
       </c>
       <c r="V44" t="n">
-        <v>84.64469183048521</v>
+        <v>84.64469183048516</v>
       </c>
       <c r="W44" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471</v>
       </c>
       <c r="X44" t="n">
         <v>123.5476225160393</v>
       </c>
       <c r="Y44" t="n">
-        <v>146.0504756397831</v>
+        <v>146.050475639783</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>31.52530565498352</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>45.2613489262746</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.037534323606014</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.9925489516172765</v>
+        <v>0.9925489516172197</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>4.413829136735387</v>
       </c>
       <c r="W45" t="n">
-        <v>30.46949179834479</v>
+        <v>30.46949179834473</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.42116716196385</v>
+        <v>52.42116716196379</v>
       </c>
       <c r="V46" t="n">
-        <v>8.873923405783103</v>
+        <v>8.873923405783046</v>
       </c>
       <c r="W46" t="n">
-        <v>54.07561531066852</v>
+        <v>54.07561531066847</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>167.3816583235892</v>
+        <v>81.98285305645197</v>
       </c>
       <c r="C11" t="n">
-        <v>167.3816583235892</v>
+        <v>81.98285305645197</v>
       </c>
       <c r="D11" t="n">
-        <v>167.3816583235892</v>
+        <v>81.98285305645197</v>
       </c>
       <c r="E11" t="n">
-        <v>167.3816583235892</v>
+        <v>81.98285305645197</v>
       </c>
       <c r="F11" t="n">
-        <v>81.98285305645183</v>
+        <v>81.98285305645197</v>
       </c>
       <c r="G11" t="n">
-        <v>81.98285305645183</v>
+        <v>43.56028316785904</v>
       </c>
       <c r="H11" t="n">
-        <v>43.56028316785893</v>
+        <v>43.56028316785904</v>
       </c>
       <c r="I11" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="J11" t="n">
-        <v>82.9489969827504</v>
+        <v>82.94899698275086</v>
       </c>
       <c r="K11" t="n">
-        <v>82.9489969827504</v>
+        <v>82.94899698275086</v>
       </c>
       <c r="L11" t="n">
-        <v>131.5728241922341</v>
+        <v>131.5728241922345</v>
       </c>
       <c r="M11" t="n">
-        <v>214.5521604557889</v>
+        <v>214.5521604557893</v>
       </c>
       <c r="N11" t="n">
-        <v>292.0317531153186</v>
+        <v>292.0317531153191</v>
       </c>
       <c r="O11" t="n">
-        <v>328.284176653331</v>
+        <v>328.2841766533315</v>
       </c>
       <c r="P11" t="n">
-        <v>328.284176653331</v>
+        <v>328.2841766533315</v>
       </c>
       <c r="Q11" t="n">
-        <v>328.284176653331</v>
+        <v>328.2841766533315</v>
       </c>
       <c r="R11" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="S11" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="T11" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="U11" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="V11" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="W11" t="n">
-        <v>338.1792688578639</v>
+        <v>252.7804635907268</v>
       </c>
       <c r="X11" t="n">
-        <v>338.1792688578639</v>
+        <v>252.7804635907268</v>
       </c>
       <c r="Y11" t="n">
-        <v>252.7804635907266</v>
+        <v>167.3816583235894</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="C12" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="D12" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="E12" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="F12" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="G12" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="H12" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="I12" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="J12" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="K12" t="n">
-        <v>45.76878079825742</v>
+        <v>45.76878079825744</v>
       </c>
       <c r="L12" t="n">
-        <v>129.4681498405787</v>
+        <v>129.4681498405789</v>
       </c>
       <c r="M12" t="n">
-        <v>129.4681498405787</v>
+        <v>213.1675188829003</v>
       </c>
       <c r="N12" t="n">
-        <v>170.7805307732212</v>
+        <v>296.8668879252216</v>
       </c>
       <c r="O12" t="n">
-        <v>254.4798998155426</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="P12" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.1792688578639</v>
+        <v>332.0807493390703</v>
       </c>
       <c r="R12" t="n">
-        <v>338.1792688578639</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="S12" t="n">
-        <v>278.3286053860842</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="T12" t="n">
-        <v>267.3859662156925</v>
+        <v>235.7393049015409</v>
       </c>
       <c r="U12" t="n">
-        <v>233.9352601509254</v>
+        <v>202.2885988367738</v>
       </c>
       <c r="V12" t="n">
-        <v>197.0287155153319</v>
+        <v>165.3820542011802</v>
       </c>
       <c r="W12" t="n">
-        <v>111.6299102481946</v>
+        <v>102.1566583922439</v>
       </c>
       <c r="X12" t="n">
-        <v>26.23110498105721</v>
+        <v>88.82183746971256</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.99316122774191</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="C13" t="n">
-        <v>70.27087937439232</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="D13" t="n">
-        <v>78.48743860456071</v>
+        <v>65.10308893785664</v>
       </c>
       <c r="E13" t="n">
-        <v>140.298386113361</v>
+        <v>126.9140364466569</v>
       </c>
       <c r="F13" t="n">
-        <v>140.298386113361</v>
+        <v>191.4467503592976</v>
       </c>
       <c r="G13" t="n">
-        <v>140.298386113361</v>
+        <v>226.508719697339</v>
       </c>
       <c r="H13" t="n">
-        <v>140.298386113361</v>
+        <v>264.4609860959856</v>
       </c>
       <c r="I13" t="n">
-        <v>140.298386113361</v>
+        <v>264.4609860959856</v>
       </c>
       <c r="J13" t="n">
-        <v>140.298386113361</v>
+        <v>264.4609860959856</v>
       </c>
       <c r="K13" t="n">
-        <v>140.298386113361</v>
+        <v>264.4609860959856</v>
       </c>
       <c r="L13" t="n">
-        <v>140.298386113361</v>
+        <v>264.4609860959856</v>
       </c>
       <c r="M13" t="n">
-        <v>140.298386113361</v>
+        <v>264.4609860959856</v>
       </c>
       <c r="N13" t="n">
-        <v>140.298386113361</v>
+        <v>264.4609860959856</v>
       </c>
       <c r="O13" t="n">
-        <v>140.298386113361</v>
+        <v>264.4609860959856</v>
       </c>
       <c r="P13" t="n">
-        <v>223.9977551556823</v>
+        <v>264.4609860959856</v>
       </c>
       <c r="Q13" t="n">
-        <v>300.5762136864952</v>
+        <v>301.4940970687576</v>
       </c>
       <c r="R13" t="n">
-        <v>301.4940970687571</v>
+        <v>301.4940970687576</v>
       </c>
       <c r="S13" t="n">
-        <v>269.9472458416883</v>
+        <v>269.9472458416888</v>
       </c>
       <c r="T13" t="n">
-        <v>250.1222244249338</v>
+        <v>250.1222244249342</v>
       </c>
       <c r="U13" t="n">
-        <v>164.7234191577965</v>
+        <v>164.7234191577968</v>
       </c>
       <c r="V13" t="n">
-        <v>123.3117287958922</v>
+        <v>123.3117287958925</v>
       </c>
       <c r="W13" t="n">
-        <v>37.91292352875483</v>
+        <v>37.91292352875501</v>
       </c>
       <c r="X13" t="n">
-        <v>19.92503092059539</v>
+        <v>19.92503092059549</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.561195911432</v>
+        <v>144.0200573242833</v>
       </c>
       <c r="C14" t="n">
-        <v>177.561195911432</v>
+        <v>92.16239064429473</v>
       </c>
       <c r="D14" t="n">
-        <v>177.561195911432</v>
+        <v>92.16239064429473</v>
       </c>
       <c r="E14" t="n">
-        <v>177.561195911432</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="F14" t="n">
-        <v>92.16239064429465</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="G14" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="H14" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="I14" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="J14" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="K14" t="n">
-        <v>35.50205147844147</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="L14" t="n">
-        <v>84.12587868792517</v>
+        <v>55.38741258664098</v>
       </c>
       <c r="M14" t="n">
-        <v>167.1052149514799</v>
+        <v>138.3667488501957</v>
       </c>
       <c r="N14" t="n">
-        <v>244.5848076110097</v>
+        <v>215.8463415097255</v>
       </c>
       <c r="O14" t="n">
-        <v>328.284176653331</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="P14" t="n">
-        <v>328.284176653331</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="Q14" t="n">
-        <v>328.284176653331</v>
+        <v>328.2841766533315</v>
       </c>
       <c r="R14" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="S14" t="n">
-        <v>314.817667858558</v>
+        <v>314.8176678585582</v>
       </c>
       <c r="T14" t="n">
-        <v>296.3316894422146</v>
+        <v>314.8176678585582</v>
       </c>
       <c r="U14" t="n">
-        <v>296.3316894422146</v>
+        <v>314.8176678585582</v>
       </c>
       <c r="V14" t="n">
-        <v>262.9600011785694</v>
+        <v>314.8176678585582</v>
       </c>
       <c r="W14" t="n">
-        <v>262.9600011785694</v>
+        <v>314.8176678585582</v>
       </c>
       <c r="X14" t="n">
-        <v>262.9600011785694</v>
+        <v>229.4188625914207</v>
       </c>
       <c r="Y14" t="n">
-        <v>177.561195911432</v>
+        <v>229.4188625914207</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>160.8516426517442</v>
+        <v>144.5456562557625</v>
       </c>
       <c r="C15" t="n">
-        <v>160.8516426517442</v>
+        <v>144.5456562557625</v>
       </c>
       <c r="D15" t="n">
-        <v>160.8516426517442</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="E15" t="n">
-        <v>160.8516426517442</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="F15" t="n">
-        <v>75.4528373846068</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="G15" t="n">
-        <v>75.4528373846068</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="H15" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="I15" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="J15" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="K15" t="n">
-        <v>45.76878079825742</v>
+        <v>45.76878079825744</v>
       </c>
       <c r="L15" t="n">
-        <v>87.08116173089992</v>
+        <v>45.76878079825744</v>
       </c>
       <c r="M15" t="n">
-        <v>170.7805307732212</v>
+        <v>87.08116173090006</v>
       </c>
       <c r="N15" t="n">
-        <v>254.4798998155426</v>
+        <v>170.7805307732215</v>
       </c>
       <c r="O15" t="n">
-        <v>338.1792688578639</v>
+        <v>254.4798998155429</v>
       </c>
       <c r="P15" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="Q15" t="n">
-        <v>338.1792688578639</v>
+        <v>332.0807493390703</v>
       </c>
       <c r="R15" t="n">
-        <v>338.1792688578639</v>
+        <v>332.0807493390703</v>
       </c>
       <c r="S15" t="n">
-        <v>338.1792688578639</v>
+        <v>332.0807493390703</v>
       </c>
       <c r="T15" t="n">
-        <v>327.2366296874721</v>
+        <v>321.1381101686784</v>
       </c>
       <c r="U15" t="n">
-        <v>293.7859236227051</v>
+        <v>287.6874041039113</v>
       </c>
       <c r="V15" t="n">
-        <v>256.8793789871116</v>
+        <v>250.7808594683177</v>
       </c>
       <c r="W15" t="n">
-        <v>193.6539831781753</v>
+        <v>187.5554636593813</v>
       </c>
       <c r="X15" t="n">
-        <v>180.3191622556441</v>
+        <v>174.22064273685</v>
       </c>
       <c r="Y15" t="n">
-        <v>160.8516426517442</v>
+        <v>144.5456562557625</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="C16" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="D16" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="E16" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="F16" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="G16" t="n">
-        <v>41.82555471519878</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="H16" t="n">
-        <v>41.82555471519878</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="I16" t="n">
-        <v>41.82555471519878</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="J16" t="n">
-        <v>125.2411014532946</v>
+        <v>90.17913211525304</v>
       </c>
       <c r="K16" t="n">
-        <v>208.940470495616</v>
+        <v>90.17913211525304</v>
       </c>
       <c r="L16" t="n">
-        <v>208.940470495616</v>
+        <v>173.8785011575744</v>
       </c>
       <c r="M16" t="n">
-        <v>208.940470495616</v>
+        <v>257.5778701998959</v>
       </c>
       <c r="N16" t="n">
-        <v>208.940470495616</v>
+        <v>301.4940970687576</v>
       </c>
       <c r="O16" t="n">
-        <v>208.940470495616</v>
+        <v>301.4940970687576</v>
       </c>
       <c r="P16" t="n">
-        <v>224.9156385379442</v>
+        <v>301.4940970687576</v>
       </c>
       <c r="Q16" t="n">
-        <v>301.4940970687571</v>
+        <v>301.4940970687576</v>
       </c>
       <c r="R16" t="n">
-        <v>301.4940970687571</v>
+        <v>301.4940970687576</v>
       </c>
       <c r="S16" t="n">
-        <v>269.9472458416883</v>
+        <v>269.9472458416888</v>
       </c>
       <c r="T16" t="n">
-        <v>250.1222244249338</v>
+        <v>250.1222244249342</v>
       </c>
       <c r="U16" t="n">
-        <v>164.7234191577965</v>
+        <v>164.7234191577968</v>
       </c>
       <c r="V16" t="n">
-        <v>123.3117287958922</v>
+        <v>123.3117287958925</v>
       </c>
       <c r="W16" t="n">
-        <v>37.91292352875483</v>
+        <v>37.91292352875501</v>
       </c>
       <c r="X16" t="n">
-        <v>19.92503092059539</v>
+        <v>19.92503092059549</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.7243025594527</v>
+        <v>224.7243025594538</v>
       </c>
       <c r="C17" t="n">
-        <v>209.8024792656684</v>
+        <v>209.8024792656696</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4395829809264</v>
+        <v>207.4395829809274</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0294620301145</v>
+        <v>171.0294620301156</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5785960506387</v>
+        <v>102.5785960506398</v>
       </c>
       <c r="G17" t="n">
-        <v>18.34314156973354</v>
+        <v>18.34314156973348</v>
       </c>
       <c r="H17" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="I17" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="J17" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="K17" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="L17" t="n">
         <v>55.38741258664098</v>
@@ -5543,22 +5543,22 @@
         <v>252.0987650477379</v>
       </c>
       <c r="T17" t="n">
-        <v>335.7981340900592</v>
+        <v>252.0987650477379</v>
       </c>
       <c r="U17" t="n">
-        <v>335.7981340900592</v>
+        <v>335.7981340900593</v>
       </c>
       <c r="V17" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="W17" t="n">
-        <v>335.6908127917679</v>
+        <v>335.6908127917689</v>
       </c>
       <c r="X17" t="n">
-        <v>311.0950330196733</v>
+        <v>311.0950330196743</v>
       </c>
       <c r="Y17" t="n">
-        <v>263.7690985771304</v>
+        <v>263.7690985771314</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>167.3816583235892</v>
+        <v>75.88433353765794</v>
       </c>
       <c r="C18" t="n">
-        <v>167.3816583235892</v>
+        <v>75.88433353765794</v>
       </c>
       <c r="D18" t="n">
-        <v>92.16239064429465</v>
+        <v>75.88433353765794</v>
       </c>
       <c r="E18" t="n">
-        <v>6.763585377157279</v>
+        <v>75.88433353765794</v>
       </c>
       <c r="F18" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="G18" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="H18" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="I18" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="J18" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="K18" t="n">
-        <v>6.763585377157279</v>
+        <v>45.76878079825744</v>
       </c>
       <c r="L18" t="n">
-        <v>90.46295441947861</v>
+        <v>87.08116173090006</v>
       </c>
       <c r="M18" t="n">
-        <v>170.7805307732212</v>
+        <v>170.7805307732215</v>
       </c>
       <c r="N18" t="n">
-        <v>170.7805307732212</v>
+        <v>254.4798998155429</v>
       </c>
       <c r="O18" t="n">
-        <v>254.4798998155426</v>
+        <v>254.4798998155429</v>
       </c>
       <c r="P18" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.1792688578639</v>
+        <v>332.0807493390703</v>
       </c>
       <c r="R18" t="n">
-        <v>338.1792688578639</v>
+        <v>332.0807493390703</v>
       </c>
       <c r="S18" t="n">
-        <v>338.1792688578639</v>
+        <v>332.0807493390703</v>
       </c>
       <c r="T18" t="n">
-        <v>338.1792688578639</v>
+        <v>332.0807493390703</v>
       </c>
       <c r="U18" t="n">
-        <v>252.7804635907266</v>
+        <v>332.0807493390703</v>
       </c>
       <c r="V18" t="n">
-        <v>252.7804635907266</v>
+        <v>332.0807493390703</v>
       </c>
       <c r="W18" t="n">
-        <v>252.7804635907266</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="X18" t="n">
-        <v>252.7804635907266</v>
+        <v>161.2831388047954</v>
       </c>
       <c r="Y18" t="n">
-        <v>252.7804635907266</v>
+        <v>75.88433353765794</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="C19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="D19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="E19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="F19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="G19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="H19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="I19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="J19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="K19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="L19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="M19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="N19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="O19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="P19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="R19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="S19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="T19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="U19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="V19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="W19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="X19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7243025594532</v>
+        <v>224.7243025594539</v>
       </c>
       <c r="C20" t="n">
-        <v>209.802479265669</v>
+        <v>209.8024792656697</v>
       </c>
       <c r="D20" t="n">
-        <v>207.4395829809267</v>
+        <v>207.4395829809274</v>
       </c>
       <c r="E20" t="n">
-        <v>171.0294620301148</v>
+        <v>171.0294620301155</v>
       </c>
       <c r="F20" t="n">
-        <v>102.5785960506389</v>
+        <v>102.5785960506396</v>
       </c>
       <c r="G20" t="n">
         <v>18.34314156973353</v>
       </c>
       <c r="H20" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="I20" t="n">
-        <v>57.76854735444566</v>
+        <v>9.144720144962221</v>
       </c>
       <c r="J20" t="n">
-        <v>57.76854735444566</v>
+        <v>92.84408918728363</v>
       </c>
       <c r="K20" t="n">
-        <v>57.76854735444566</v>
+        <v>92.84408918728363</v>
       </c>
       <c r="L20" t="n">
-        <v>141.467916396767</v>
+        <v>141.4679163967673</v>
       </c>
       <c r="M20" t="n">
-        <v>224.4472526603217</v>
+        <v>224.4472526603221</v>
       </c>
       <c r="N20" t="n">
-        <v>301.9268453198515</v>
+        <v>301.9268453198519</v>
       </c>
       <c r="O20" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="P20" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="Q20" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="R20" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="S20" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="T20" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="U20" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="V20" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="W20" t="n">
-        <v>335.6908127917685</v>
+        <v>335.6908127917688</v>
       </c>
       <c r="X20" t="n">
-        <v>311.0950330196738</v>
+        <v>311.0950330196742</v>
       </c>
       <c r="Y20" t="n">
-        <v>263.7690985771309</v>
+        <v>263.7690985771316</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>252.7804635907266</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="C21" t="n">
-        <v>252.7804635907266</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="D21" t="n">
-        <v>252.7804635907266</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="E21" t="n">
-        <v>252.7804635907266</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="F21" t="n">
-        <v>177.561195911432</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="G21" t="n">
-        <v>92.16239064429465</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="H21" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="I21" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="J21" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="K21" t="n">
-        <v>6.763585377157279</v>
+        <v>45.76878079825744</v>
       </c>
       <c r="L21" t="n">
-        <v>6.763585377157279</v>
+        <v>129.4681498405789</v>
       </c>
       <c r="M21" t="n">
-        <v>90.46295441947861</v>
+        <v>213.1675188829003</v>
       </c>
       <c r="N21" t="n">
-        <v>174.1623234617999</v>
+        <v>254.4798998155429</v>
       </c>
       <c r="O21" t="n">
-        <v>254.4798998155426</v>
+        <v>254.4798998155429</v>
       </c>
       <c r="P21" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.1792688578639</v>
+        <v>332.0807493390703</v>
       </c>
       <c r="R21" t="n">
-        <v>338.1792688578639</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="S21" t="n">
-        <v>252.7804635907266</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="T21" t="n">
-        <v>252.7804635907266</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="U21" t="n">
-        <v>252.7804635907266</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="V21" t="n">
-        <v>252.7804635907266</v>
+        <v>161.2831388047954</v>
       </c>
       <c r="W21" t="n">
-        <v>252.7804635907266</v>
+        <v>144.5456562557625</v>
       </c>
       <c r="X21" t="n">
-        <v>252.7804635907266</v>
+        <v>144.5456562557625</v>
       </c>
       <c r="Y21" t="n">
-        <v>252.7804635907266</v>
+        <v>144.5456562557625</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="C22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="D22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="E22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="F22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="G22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="H22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="I22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="J22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="K22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="L22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="M22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="N22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="O22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="P22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="R22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="S22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="T22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="U22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="V22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="W22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="X22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.7243025594537</v>
+        <v>224.7243025594535</v>
       </c>
       <c r="C23" t="n">
-        <v>209.8024792656695</v>
+        <v>209.8024792656691</v>
       </c>
       <c r="D23" t="n">
         <v>207.4395829809272</v>
       </c>
       <c r="E23" t="n">
-        <v>171.0294620301153</v>
+        <v>171.029462030115</v>
       </c>
       <c r="F23" t="n">
-        <v>102.5785960506395</v>
+        <v>102.5785960506392</v>
       </c>
       <c r="G23" t="n">
-        <v>18.34314156973354</v>
+        <v>18.34314156973353</v>
       </c>
       <c r="H23" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="I23" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="J23" t="n">
-        <v>6.763585377157279</v>
+        <v>78.43651156321502</v>
       </c>
       <c r="K23" t="n">
-        <v>6.763585377157279</v>
+        <v>78.43651156321502</v>
       </c>
       <c r="L23" t="n">
-        <v>55.38741258664098</v>
+        <v>127.0603387726987</v>
       </c>
       <c r="M23" t="n">
-        <v>138.3667488501957</v>
+        <v>210.0396750362535</v>
       </c>
       <c r="N23" t="n">
-        <v>215.8463415097255</v>
+        <v>287.5192676957832</v>
       </c>
       <c r="O23" t="n">
-        <v>252.0987650477379</v>
+        <v>323.7716912337957</v>
       </c>
       <c r="P23" t="n">
-        <v>252.0987650477379</v>
+        <v>323.7716912337957</v>
       </c>
       <c r="Q23" t="n">
-        <v>252.0987650477379</v>
+        <v>323.7716912337957</v>
       </c>
       <c r="R23" t="n">
-        <v>252.0987650477379</v>
+        <v>323.7716912337957</v>
       </c>
       <c r="S23" t="n">
-        <v>254.479899815543</v>
+        <v>323.7716912337957</v>
       </c>
       <c r="T23" t="n">
-        <v>254.479899815543</v>
+        <v>323.7716912337957</v>
       </c>
       <c r="U23" t="n">
-        <v>338.1792688578643</v>
+        <v>323.7716912337957</v>
       </c>
       <c r="V23" t="n">
         <v>338.1792688578643</v>
       </c>
       <c r="W23" t="n">
-        <v>335.6908127917689</v>
+        <v>335.6908127917687</v>
       </c>
       <c r="X23" t="n">
-        <v>311.0950330196742</v>
+        <v>311.0950330196741</v>
       </c>
       <c r="Y23" t="n">
-        <v>263.7690985771314</v>
+        <v>263.7690985771312</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>167.3816583235892</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="C24" t="n">
-        <v>167.3816583235892</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="D24" t="n">
-        <v>167.3816583235892</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="E24" t="n">
-        <v>167.3816583235892</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="F24" t="n">
-        <v>167.3816583235892</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="G24" t="n">
-        <v>81.98285305645183</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="H24" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="I24" t="n">
-        <v>6.763585377157279</v>
+        <v>59.14685098862502</v>
       </c>
       <c r="J24" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="K24" t="n">
-        <v>45.76878079825742</v>
+        <v>45.76878079825744</v>
       </c>
       <c r="L24" t="n">
-        <v>129.4681498405787</v>
+        <v>45.76878079825744</v>
       </c>
       <c r="M24" t="n">
-        <v>213.1675188829001</v>
+        <v>87.08116173090006</v>
       </c>
       <c r="N24" t="n">
-        <v>296.8668879252214</v>
+        <v>170.7805307732215</v>
       </c>
       <c r="O24" t="n">
-        <v>296.8668879252214</v>
+        <v>254.4798998155429</v>
       </c>
       <c r="P24" t="n">
-        <v>338.1792688578639</v>
+        <v>338.1792688578643</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.1792688578639</v>
+        <v>332.0807493390703</v>
       </c>
       <c r="R24" t="n">
-        <v>338.1792688578639</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="S24" t="n">
-        <v>338.1792688578639</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="T24" t="n">
-        <v>338.1792688578639</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="U24" t="n">
-        <v>338.1792688578639</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="V24" t="n">
-        <v>252.7804635907266</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="W24" t="n">
-        <v>252.7804635907266</v>
+        <v>246.6819440719328</v>
       </c>
       <c r="X24" t="n">
-        <v>167.3816583235892</v>
+        <v>229.9444615228999</v>
       </c>
       <c r="Y24" t="n">
-        <v>167.3816583235892</v>
+        <v>144.5456562557625</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="C25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="D25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="E25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="F25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="G25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="H25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="I25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="J25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="K25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="L25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="M25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="N25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="O25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="P25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="R25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="S25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="T25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="U25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="V25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="W25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="X25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.763585377157279</v>
+        <v>6.763585377157285</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2687840112828</v>
+        <v>886.2687840112824</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0751314131132</v>
+        <v>760.0751314131128</v>
       </c>
       <c r="E26" t="n">
-        <v>599.834254148874</v>
+        <v>599.8342541488736</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5526318559709</v>
+        <v>407.5526318559704</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4864210616377</v>
+        <v>199.486421061637</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07610855563384</v>
+        <v>64.07610855563385</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J26" t="n">
         <v>171.8183046963237</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4043607994713</v>
+        <v>377.4043607994712</v>
       </c>
       <c r="L26" t="n">
-        <v>636.740227143294</v>
+        <v>636.7402271432939</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4316025411877</v>
+        <v>930.4316025411879</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.623234335056</v>
+        <v>1218.623234335057</v>
       </c>
       <c r="O26" t="n">
         <v>1465.587697007408</v>
@@ -6248,7 +6248,7 @@
         <v>1786.29241320021</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.829217230178</v>
+        <v>1804.829217230179</v>
       </c>
       <c r="S26" t="n">
         <v>1790.284789810544</v>
@@ -6263,10 +6263,10 @@
         <v>1633.799355170614</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.480142791092</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.05360670557</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.896915949599</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.7462062558018</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="C27" t="n">
-        <v>111.7462062558018</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="D27" t="n">
-        <v>111.7462062558018</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="E27" t="n">
-        <v>111.7462062558018</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="F27" t="n">
-        <v>111.7462062558018</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K27" t="n">
-        <v>75.10177976570371</v>
+        <v>75.10177976570372</v>
       </c>
       <c r="L27" t="n">
         <v>193.8356208840663</v>
@@ -6324,31 +6324,31 @@
         <v>801.8233632992857</v>
       </c>
       <c r="Q27" t="n">
-        <v>801.8233632992857</v>
+        <v>795.7248437804917</v>
       </c>
       <c r="R27" t="n">
-        <v>666.1514850647808</v>
+        <v>660.0529655459868</v>
       </c>
       <c r="S27" t="n">
-        <v>666.1514850647808</v>
+        <v>660.0529655459868</v>
       </c>
       <c r="T27" t="n">
-        <v>664.0260194740604</v>
+        <v>657.9274999552664</v>
       </c>
       <c r="U27" t="n">
-        <v>639.3924869889647</v>
+        <v>418.3036204297269</v>
       </c>
       <c r="V27" t="n">
-        <v>396.3127688925988</v>
+        <v>175.223902333361</v>
       </c>
       <c r="W27" t="n">
-        <v>126.9141996228901</v>
+        <v>120.8156801040961</v>
       </c>
       <c r="X27" t="n">
-        <v>122.3965522800303</v>
+        <v>116.2980327612363</v>
       </c>
       <c r="Y27" t="n">
-        <v>111.7462062558018</v>
+        <v>88.47984995607132</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09658434460356</v>
+        <v>83.76685469911374</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09658434460356</v>
+        <v>175.8241132626455</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09658434460356</v>
+        <v>175.8241132626455</v>
       </c>
       <c r="L28" t="n">
-        <v>215.7825269532047</v>
+        <v>175.8241132626455</v>
       </c>
       <c r="M28" t="n">
-        <v>215.7825269532047</v>
+        <v>175.8241132626455</v>
       </c>
       <c r="N28" t="n">
-        <v>215.7825269532047</v>
+        <v>175.8241132626455</v>
       </c>
       <c r="O28" t="n">
-        <v>215.7825269532047</v>
+        <v>175.8241132626455</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0483630772724</v>
+        <v>248.0483630772726</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0405152401893</v>
+        <v>237.0405152401895</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4588835527234</v>
+        <v>160.4588835527235</v>
       </c>
       <c r="V28" t="n">
         <v>127.8643667704906</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61157533685829</v>
+        <v>49.61157533685836</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44085630837026</v>
+        <v>40.44085630837031</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2687840112829</v>
+        <v>886.2687840112819</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0751314131134</v>
+        <v>760.0751314131122</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8342541488742</v>
+        <v>599.834254148873</v>
       </c>
       <c r="F29" t="n">
-        <v>407.552631855971</v>
+        <v>407.5526318559698</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4864210616377</v>
+        <v>199.4864210616365</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07610855563384</v>
+        <v>64.07610855563385</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8183046963238</v>
+        <v>171.8183046963237</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4043607994714</v>
+        <v>377.4043607994712</v>
       </c>
       <c r="L29" t="n">
         <v>636.7402271432939</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4316025411877</v>
+        <v>930.4316025411875</v>
       </c>
       <c r="N29" t="n">
         <v>1218.623234335056</v>
@@ -6482,10 +6482,10 @@
         <v>1663.092768286574</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.29241320021</v>
+        <v>1786.292413200209</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.829217230178</v>
+        <v>1804.829217230179</v>
       </c>
       <c r="S29" t="n">
         <v>1790.284789810544</v>
@@ -6500,10 +6500,10 @@
         <v>1633.799355170614</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.480142791092</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.05360670557</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.896915949599</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>347.1171927272465</v>
+        <v>671.3002590524003</v>
       </c>
       <c r="C30" t="n">
-        <v>347.1171927272465</v>
+        <v>481.887984785364</v>
       </c>
       <c r="D30" t="n">
-        <v>186.3370764882783</v>
+        <v>370.2642886706318</v>
       </c>
       <c r="E30" t="n">
-        <v>186.3370764882783</v>
+        <v>196.7010847920462</v>
       </c>
       <c r="F30" t="n">
-        <v>186.3370764882783</v>
+        <v>196.7010847920462</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09658434460356</v>
+        <v>196.7010847920462</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09658434460356</v>
+        <v>196.7010847920462</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K30" t="n">
-        <v>75.10177976570371</v>
+        <v>75.10177976570372</v>
       </c>
       <c r="L30" t="n">
         <v>193.8356208840663</v>
@@ -6561,31 +6561,31 @@
         <v>801.8233632992857</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.8233632992857</v>
+        <v>795.7248437804917</v>
       </c>
       <c r="R30" t="n">
-        <v>801.8233632992857</v>
+        <v>795.7248437804917</v>
       </c>
       <c r="S30" t="n">
-        <v>801.8233632992857</v>
+        <v>795.7248437804917</v>
       </c>
       <c r="T30" t="n">
-        <v>799.6978977085653</v>
+        <v>793.5993781897713</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0643652234696</v>
+        <v>768.9658457046756</v>
       </c>
       <c r="V30" t="n">
-        <v>746.9749941675475</v>
+        <v>740.8764746487535</v>
       </c>
       <c r="W30" t="n">
-        <v>477.5764248978388</v>
+        <v>686.4682524194886</v>
       </c>
       <c r="X30" t="n">
-        <v>473.058777554979</v>
+        <v>681.9506050766288</v>
       </c>
       <c r="Y30" t="n">
-        <v>462.4084315307505</v>
+        <v>671.3002590524003</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.96787202062414</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C31" t="n">
-        <v>84.18278054763726</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D31" t="n">
-        <v>84.18278054763726</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E31" t="n">
-        <v>84.18278054763726</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F31" t="n">
-        <v>84.18278054763726</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="G31" t="n">
-        <v>84.18278054763726</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="H31" t="n">
-        <v>84.18278054763726</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="I31" t="n">
-        <v>84.18278054763726</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="J31" t="n">
-        <v>84.18278054763726</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="K31" t="n">
-        <v>84.18278054763726</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="L31" t="n">
-        <v>84.18278054763726</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="M31" t="n">
-        <v>270.7780407246697</v>
+        <v>109.2710100826804</v>
       </c>
       <c r="N31" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="O31" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7780407246697</v>
+        <v>270.7780407246699</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0483630772724</v>
+        <v>248.0483630772726</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0405152401893</v>
+        <v>237.0405152401895</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4588835527234</v>
+        <v>160.4588835527235</v>
       </c>
       <c r="V31" t="n">
         <v>127.8643667704906</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61157533685829</v>
+        <v>49.61157533685836</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44085630837026</v>
+        <v>40.44085630837031</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1025.021363618493</v>
+        <v>1025.021363618495</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2687840112817</v>
+        <v>886.2687840112833</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0751314131123</v>
+        <v>760.0751314131137</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8342541488732</v>
+        <v>599.8342541488746</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5526318559702</v>
+        <v>407.5526318559715</v>
       </c>
       <c r="G32" t="n">
-        <v>199.486421061637</v>
+        <v>199.4864210616383</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07610855563381</v>
+        <v>64.07610855563379</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8183046963237</v>
+        <v>171.8183046963238</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4043607994713</v>
+        <v>377.404360799471</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7402271432941</v>
+        <v>636.7402271432937</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4316025411879</v>
+        <v>930.4316025411874</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.623234335057</v>
+        <v>1218.623234335056</v>
       </c>
       <c r="O32" t="n">
         <v>1465.587697007408</v>
@@ -6719,10 +6719,10 @@
         <v>1663.092768286574</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.292413200209</v>
+        <v>1786.29241320021</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.829217230178</v>
+        <v>1804.829217230179</v>
       </c>
       <c r="S32" t="n">
         <v>1790.284789810544</v>
@@ -6731,19 +6731,19 @@
         <v>1780.615984973872</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.930001674768</v>
+        <v>1742.930001674769</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.799355170613</v>
+        <v>1633.799355170615</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.48014279109</v>
+        <v>1507.480142791092</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.053606705569</v>
+        <v>1359.05360670557</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.896915949598</v>
+        <v>1187.8969159496</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>36.09658434460356</v>
+        <v>671.3002590524009</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09658434460356</v>
+        <v>481.8879847853646</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09658434460356</v>
+        <v>422.4707701174128</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09658434460356</v>
+        <v>248.9075662388272</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09658434460356</v>
+        <v>88.47984995607132</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K33" t="n">
-        <v>75.10177976570371</v>
+        <v>75.10177976570372</v>
       </c>
       <c r="L33" t="n">
         <v>193.8356208840663</v>
@@ -6807,22 +6807,22 @@
         <v>795.7248437804917</v>
       </c>
       <c r="T33" t="n">
-        <v>578.6090311493275</v>
+        <v>793.5993781897714</v>
       </c>
       <c r="U33" t="n">
-        <v>553.9754986642318</v>
+        <v>768.9658457046759</v>
       </c>
       <c r="V33" t="n">
-        <v>310.8957805678659</v>
+        <v>740.8764746487539</v>
       </c>
       <c r="W33" t="n">
-        <v>256.4875583386011</v>
+        <v>686.4682524194891</v>
       </c>
       <c r="X33" t="n">
-        <v>46.74693036883205</v>
+        <v>681.9506050766294</v>
       </c>
       <c r="Y33" t="n">
-        <v>36.09658434460356</v>
+        <v>671.3002590524009</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="E34" t="n">
-        <v>106.5492436788398</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="F34" t="n">
-        <v>179.7236694169167</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="G34" t="n">
-        <v>179.7236694169167</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="H34" t="n">
-        <v>179.7236694169167</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="I34" t="n">
-        <v>179.7236694169167</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="J34" t="n">
-        <v>179.7236694169167</v>
+        <v>36.09658434460358</v>
       </c>
       <c r="K34" t="n">
-        <v>179.7236694169167</v>
+        <v>91.09209811606812</v>
       </c>
       <c r="L34" t="n">
-        <v>179.7236694169167</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="M34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="N34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="O34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0483630772723</v>
+        <v>248.0483630772721</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0405152401892</v>
+        <v>237.0405152401891</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4588835527233</v>
+        <v>160.4588835527232</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8643667704905</v>
+        <v>127.8643667704904</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61157533685823</v>
+        <v>49.61157533685819</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44085630837024</v>
+        <v>40.44085630837022</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09658434460356</v>
+        <v>36.09658434460358</v>
       </c>
     </row>
     <row r="35">
@@ -6911,67 +6911,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>852.8410737358899</v>
+        <v>852.8410737358904</v>
       </c>
       <c r="C35" t="n">
-        <v>737.7194519151705</v>
+        <v>737.7194519151709</v>
       </c>
       <c r="D35" t="n">
-        <v>635.1567571034932</v>
+        <v>635.1567571034936</v>
       </c>
       <c r="E35" t="n">
-        <v>498.5468376257464</v>
+        <v>498.5468376257469</v>
       </c>
       <c r="F35" t="n">
-        <v>329.8961731193356</v>
+        <v>329.8961731193361</v>
       </c>
       <c r="G35" t="n">
-        <v>145.4609201114947</v>
+        <v>145.4609201114951</v>
       </c>
       <c r="H35" t="n">
-        <v>33.68156539198421</v>
+        <v>33.6815653919842</v>
       </c>
       <c r="I35" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="J35" t="n">
-        <v>29.33299896744628</v>
+        <v>188.2154210457076</v>
       </c>
       <c r="K35" t="n">
-        <v>258.079756797135</v>
+        <v>188.2154210457076</v>
       </c>
       <c r="L35" t="n">
-        <v>540.5763248674989</v>
+        <v>470.7119891160714</v>
       </c>
       <c r="M35" t="n">
-        <v>857.4284019919337</v>
+        <v>553.6913253796262</v>
       </c>
       <c r="N35" t="n">
-        <v>934.9079946514635</v>
+        <v>787.8011585710278</v>
       </c>
       <c r="O35" t="n">
-        <v>1099.62382872643</v>
+        <v>1057.92632296992</v>
       </c>
       <c r="P35" t="n">
-        <v>1320.289601732138</v>
+        <v>1278.592095975628</v>
       </c>
       <c r="Q35" t="n">
-        <v>1466.649948372314</v>
+        <v>1424.952442615805</v>
       </c>
       <c r="R35" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="S35" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="T35" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372315</v>
       </c>
       <c r="U35" t="n">
-        <v>1452.594922859702</v>
+        <v>1452.594922859703</v>
       </c>
       <c r="V35" t="n">
-        <v>1367.09523414204</v>
+        <v>1367.095234142041</v>
       </c>
       <c r="W35" t="n">
         <v>1264.40697954901</v>
@@ -6980,7 +6980,7 @@
         <v>1139.611401249981</v>
       </c>
       <c r="Y35" t="n">
-        <v>992.0856682805027</v>
+        <v>992.0856682805031</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>339.777058491777</v>
+        <v>524.104035367756</v>
       </c>
       <c r="C36" t="n">
-        <v>339.777058491777</v>
+        <v>524.104035367756</v>
       </c>
       <c r="D36" t="n">
-        <v>178.9969422528088</v>
+        <v>363.3239191287877</v>
       </c>
       <c r="E36" t="n">
-        <v>178.9969422528088</v>
+        <v>189.7607152502022</v>
       </c>
       <c r="F36" t="n">
-        <v>178.9969422528088</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="G36" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="H36" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="I36" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="J36" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.33819438854643</v>
+        <v>68.33819438854644</v>
       </c>
       <c r="L36" t="n">
         <v>187.072035506909</v>
@@ -7035,31 +7035,31 @@
         <v>795.0597779221283</v>
       </c>
       <c r="Q36" t="n">
-        <v>795.0597779221283</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="R36" t="n">
-        <v>795.0597779221283</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="S36" t="n">
-        <v>601.6560039672551</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="T36" t="n">
-        <v>601.6560039672551</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="U36" t="n">
-        <v>600.6534292686517</v>
+        <v>787.958683704731</v>
       </c>
       <c r="V36" t="n">
-        <v>596.1950159992219</v>
+        <v>783.5002704353012</v>
       </c>
       <c r="W36" t="n">
-        <v>565.4177515564494</v>
+        <v>752.7230059925287</v>
       </c>
       <c r="X36" t="n">
-        <v>565.4177515564494</v>
+        <v>752.7230059925287</v>
       </c>
       <c r="Y36" t="n">
-        <v>339.777058491777</v>
+        <v>702.639888294691</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="C37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="D37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="E37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="F37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="G37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="H37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="I37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="J37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="K37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="L37" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113003</v>
       </c>
       <c r="M37" t="n">
         <v>145.8690655113003</v>
@@ -7126,19 +7126,19 @@
         <v>145.8690655113003</v>
       </c>
       <c r="U37" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032674</v>
       </c>
       <c r="V37" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458622</v>
       </c>
       <c r="W37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="X37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744629</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>852.8410737358899</v>
+        <v>852.8410737358893</v>
       </c>
       <c r="C38" t="n">
-        <v>737.7194519151708</v>
+        <v>737.7194519151701</v>
       </c>
       <c r="D38" t="n">
-        <v>635.1567571034934</v>
+        <v>635.1567571034929</v>
       </c>
       <c r="E38" t="n">
-        <v>498.5468376257464</v>
+        <v>498.5468376257461</v>
       </c>
       <c r="F38" t="n">
         <v>329.8961731193356</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4609201114947</v>
+        <v>145.4609201114951</v>
       </c>
       <c r="H38" t="n">
-        <v>33.68156539198421</v>
+        <v>33.68156539198417</v>
       </c>
       <c r="I38" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J38" t="n">
-        <v>188.2154210457076</v>
+        <v>88.38290619802183</v>
       </c>
       <c r="K38" t="n">
-        <v>188.2154210457076</v>
+        <v>88.38290619802183</v>
       </c>
       <c r="L38" t="n">
-        <v>470.7119891160714</v>
+        <v>370.8794742683857</v>
       </c>
       <c r="M38" t="n">
-        <v>553.6913253796262</v>
+        <v>453.8588105319405</v>
       </c>
       <c r="N38" t="n">
-        <v>865.043658900036</v>
+        <v>765.2111440523504</v>
       </c>
       <c r="O38" t="n">
-        <v>1099.62382872643</v>
+        <v>1035.336308451243</v>
       </c>
       <c r="P38" t="n">
-        <v>1320.289601732138</v>
+        <v>1256.002081456951</v>
       </c>
       <c r="Q38" t="n">
-        <v>1466.649948372314</v>
+        <v>1402.362428097127</v>
       </c>
       <c r="R38" t="n">
-        <v>1466.649948372314</v>
+        <v>1444.059933853637</v>
       </c>
       <c r="S38" t="n">
-        <v>1466.649948372314</v>
+        <v>1452.965642266194</v>
       </c>
       <c r="T38" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372313</v>
       </c>
       <c r="U38" t="n">
         <v>1452.594922859702</v>
@@ -7214,10 +7214,10 @@
         <v>1264.40697954901</v>
       </c>
       <c r="X38" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.61140124998</v>
       </c>
       <c r="Y38" t="n">
-        <v>992.0856682805027</v>
+        <v>992.085668280502</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>190.1131152064145</v>
+        <v>752.7230059925287</v>
       </c>
       <c r="C39" t="n">
-        <v>190.1131152064145</v>
+        <v>563.3107317254924</v>
       </c>
       <c r="D39" t="n">
-        <v>29.33299896744628</v>
+        <v>402.5306154865241</v>
       </c>
       <c r="E39" t="n">
-        <v>29.33299896744628</v>
+        <v>228.9674116079385</v>
       </c>
       <c r="F39" t="n">
-        <v>29.33299896744628</v>
+        <v>68.53969532518263</v>
       </c>
       <c r="G39" t="n">
-        <v>29.33299896744628</v>
+        <v>68.53969532518263</v>
       </c>
       <c r="H39" t="n">
-        <v>29.33299896744628</v>
+        <v>68.53969532518263</v>
       </c>
       <c r="I39" t="n">
-        <v>29.33299896744628</v>
+        <v>68.53969532518263</v>
       </c>
       <c r="J39" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K39" t="n">
         <v>68.33819438854643</v>
@@ -7281,22 +7281,22 @@
         <v>788.9612584033343</v>
       </c>
       <c r="T39" t="n">
-        <v>571.8454457721701</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="U39" t="n">
-        <v>463.9700977455529</v>
+        <v>787.958683704731</v>
       </c>
       <c r="V39" t="n">
-        <v>220.8903796491871</v>
+        <v>783.5002704353012</v>
       </c>
       <c r="W39" t="n">
-        <v>190.1131152064145</v>
+        <v>752.7230059925287</v>
       </c>
       <c r="X39" t="n">
-        <v>190.1131152064145</v>
+        <v>752.7230059925287</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.1131152064145</v>
+        <v>752.7230059925287</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="C40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="D40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="E40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="F40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="G40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="H40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="I40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="L40" t="n">
         <v>145.8690655113003</v>
@@ -7363,19 +7363,19 @@
         <v>145.8690655113003</v>
       </c>
       <c r="U40" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032671</v>
       </c>
       <c r="V40" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458619</v>
       </c>
       <c r="W40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="X40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.8410737358904</v>
+        <v>852.8410737358899</v>
       </c>
       <c r="C41" t="n">
-        <v>737.7194519151711</v>
+        <v>737.7194519151707</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1567571034939</v>
+        <v>635.1567571034935</v>
       </c>
       <c r="E41" t="n">
-        <v>498.5468376257471</v>
+        <v>498.5468376257468</v>
       </c>
       <c r="F41" t="n">
-        <v>329.8961731193363</v>
+        <v>329.896173119336</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4609201114954</v>
+        <v>145.4609201114952</v>
       </c>
       <c r="H41" t="n">
-        <v>33.68156539198421</v>
+        <v>33.68156539198409</v>
       </c>
       <c r="I41" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J41" t="n">
-        <v>29.33299896744628</v>
+        <v>88.38290619802132</v>
       </c>
       <c r="K41" t="n">
-        <v>258.079756797135</v>
+        <v>88.38290619802132</v>
       </c>
       <c r="L41" t="n">
-        <v>540.5763248674989</v>
+        <v>137.006733407505</v>
       </c>
       <c r="M41" t="n">
-        <v>738.8121038128352</v>
+        <v>453.85881053194</v>
       </c>
       <c r="N41" t="n">
-        <v>1050.164437333245</v>
+        <v>765.2111440523499</v>
       </c>
       <c r="O41" t="n">
-        <v>1320.289601732138</v>
+        <v>1035.336308451243</v>
       </c>
       <c r="P41" t="n">
-        <v>1320.289601732138</v>
+        <v>1256.00208145695</v>
       </c>
       <c r="Q41" t="n">
-        <v>1466.649948372314</v>
+        <v>1402.362428097127</v>
       </c>
       <c r="R41" t="n">
-        <v>1466.649948372314</v>
+        <v>1444.059933853637</v>
       </c>
       <c r="S41" t="n">
-        <v>1466.649948372314</v>
+        <v>1452.965642266194</v>
       </c>
       <c r="T41" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372313</v>
       </c>
       <c r="U41" t="n">
-        <v>1452.594922859703</v>
+        <v>1452.594922859702</v>
       </c>
       <c r="V41" t="n">
-        <v>1367.095234142041</v>
+        <v>1367.09523414204</v>
       </c>
       <c r="W41" t="n">
         <v>1264.40697954901</v>
       </c>
       <c r="X41" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.61140124998</v>
       </c>
       <c r="Y41" t="n">
-        <v>992.0856682805031</v>
+        <v>992.0856682805027</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>392.3084771130681</v>
+        <v>379.5253894734508</v>
       </c>
       <c r="C42" t="n">
-        <v>202.8962028460318</v>
+        <v>190.1131152064145</v>
       </c>
       <c r="D42" t="n">
-        <v>202.8962028460318</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="E42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="F42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="G42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="H42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="I42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J42" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K42" t="n">
         <v>68.33819438854643</v>
@@ -7509,31 +7509,31 @@
         <v>795.0597779221283</v>
       </c>
       <c r="Q42" t="n">
-        <v>795.0597779221283</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="R42" t="n">
-        <v>795.0597779221283</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="S42" t="n">
-        <v>795.0597779221283</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="T42" t="n">
-        <v>795.0597779221283</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="U42" t="n">
-        <v>794.057203223525</v>
+        <v>787.9586837047311</v>
       </c>
       <c r="V42" t="n">
-        <v>789.5987899540952</v>
+        <v>783.5002704353014</v>
       </c>
       <c r="W42" t="n">
-        <v>520.2002206843865</v>
+        <v>752.723005992529</v>
       </c>
       <c r="X42" t="n">
-        <v>520.2002206843865</v>
+        <v>605.1660825381232</v>
       </c>
       <c r="Y42" t="n">
-        <v>392.3084771130681</v>
+        <v>379.5253894734508</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="C43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="D43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="E43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="F43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="G43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="H43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="I43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="L43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="M43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="N43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="O43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="P43" t="n">
-        <v>145.8690655113003</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.8690655113003</v>
+        <v>137.7138710502363</v>
       </c>
       <c r="R43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="S43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="T43" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="U43" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032654</v>
       </c>
       <c r="V43" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458611</v>
       </c>
       <c r="W43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="X43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.8410737358902</v>
+        <v>852.8410737358901</v>
       </c>
       <c r="C44" t="n">
         <v>737.719451915171</v>
@@ -7634,55 +7634,55 @@
         <v>498.5468376257465</v>
       </c>
       <c r="F44" t="n">
-        <v>329.8961731193357</v>
+        <v>329.8961731193358</v>
       </c>
       <c r="G44" t="n">
-        <v>145.4609201114947</v>
+        <v>145.4609201114949</v>
       </c>
       <c r="H44" t="n">
-        <v>33.68156539198421</v>
+        <v>33.68156539198412</v>
       </c>
       <c r="I44" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J44" t="n">
-        <v>188.2154210457076</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K44" t="n">
-        <v>188.2154210457076</v>
+        <v>97.28861461057886</v>
       </c>
       <c r="L44" t="n">
-        <v>470.7119891160714</v>
+        <v>145.9124418200626</v>
       </c>
       <c r="M44" t="n">
-        <v>553.6913253796262</v>
+        <v>462.7645189444975</v>
       </c>
       <c r="N44" t="n">
-        <v>865.043658900036</v>
+        <v>774.1168524649074</v>
       </c>
       <c r="O44" t="n">
-        <v>1135.168823298929</v>
+        <v>1044.2420168638</v>
       </c>
       <c r="P44" t="n">
-        <v>1256.002081456951</v>
+        <v>1264.907789869508</v>
       </c>
       <c r="Q44" t="n">
-        <v>1402.362428097128</v>
+        <v>1411.268136509684</v>
       </c>
       <c r="R44" t="n">
-        <v>1444.059933853638</v>
+        <v>1452.965642266194</v>
       </c>
       <c r="S44" t="n">
-        <v>1452.965642266195</v>
+        <v>1452.965642266194</v>
       </c>
       <c r="T44" t="n">
-        <v>1466.649948372314</v>
+        <v>1466.649948372313</v>
       </c>
       <c r="U44" t="n">
-        <v>1452.594922859703</v>
+        <v>1452.594922859702</v>
       </c>
       <c r="V44" t="n">
-        <v>1367.095234142041</v>
+        <v>1367.09523414204</v>
       </c>
       <c r="W44" t="n">
         <v>1264.40697954901</v>
@@ -7691,7 +7691,7 @@
         <v>1139.611401249981</v>
       </c>
       <c r="Y44" t="n">
-        <v>992.0856682805029</v>
+        <v>992.0856682805027</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>75.05153323641053</v>
+        <v>348.5464600009216</v>
       </c>
       <c r="C45" t="n">
-        <v>75.05153323641053</v>
+        <v>316.7027169150797</v>
       </c>
       <c r="D45" t="n">
-        <v>75.05153323641053</v>
+        <v>316.7027169150797</v>
       </c>
       <c r="E45" t="n">
-        <v>29.33299896744628</v>
+        <v>316.7027169150797</v>
       </c>
       <c r="F45" t="n">
-        <v>29.33299896744628</v>
+        <v>156.2750006323238</v>
       </c>
       <c r="G45" t="n">
-        <v>29.33299896744628</v>
+        <v>156.2750006323238</v>
       </c>
       <c r="H45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="I45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J45" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K45" t="n">
         <v>68.33819438854643</v>
@@ -7746,31 +7746,31 @@
         <v>795.0597779221283</v>
       </c>
       <c r="Q45" t="n">
-        <v>795.0597779221283</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="R45" t="n">
-        <v>795.0597779221283</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="S45" t="n">
-        <v>795.0597779221283</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="T45" t="n">
-        <v>795.0597779221283</v>
+        <v>788.9612584033343</v>
       </c>
       <c r="U45" t="n">
-        <v>794.057203223525</v>
+        <v>787.9586837047311</v>
       </c>
       <c r="V45" t="n">
-        <v>550.9774851271591</v>
+        <v>783.5002704353014</v>
       </c>
       <c r="W45" t="n">
-        <v>520.2002206843865</v>
+        <v>752.723005992529</v>
       </c>
       <c r="X45" t="n">
-        <v>300.6922263010829</v>
+        <v>752.723005992529</v>
       </c>
       <c r="Y45" t="n">
-        <v>75.05153323641053</v>
+        <v>527.0823129278567</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="C46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="D46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="E46" t="n">
-        <v>29.33299896744628</v>
+        <v>49.53393804668214</v>
       </c>
       <c r="F46" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="G46" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="H46" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="I46" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="J46" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="K46" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="L46" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="M46" t="n">
-        <v>29.33299896744628</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="N46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="O46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="P46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="Q46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="R46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="S46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="T46" t="n">
-        <v>145.8690655113003</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="U46" t="n">
-        <v>92.91839161032672</v>
+        <v>92.91839161032659</v>
       </c>
       <c r="V46" t="n">
-        <v>83.95483261458621</v>
+        <v>83.95483261458614</v>
       </c>
       <c r="W46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="X46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.33299896744628</v>
+        <v>29.33299896744627</v>
       </c>
     </row>
   </sheetData>
@@ -8775,16 +8775,16 @@
         <v>204.9161881242767</v>
       </c>
       <c r="M12" t="n">
-        <v>116.6137939472722</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N12" t="n">
-        <v>143.6737839116513</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O12" t="n">
-        <v>205.1857278322749</v>
+        <v>162.3705883275489</v>
       </c>
       <c r="P12" t="n">
-        <v>205.1943705594503</v>
+        <v>120.6495533449843</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9009,19 +9009,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>162.1010486195506</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M15" t="n">
-        <v>201.1586111617382</v>
+        <v>158.3434716570122</v>
       </c>
       <c r="N15" t="n">
-        <v>186.4889234163774</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O15" t="n">
         <v>205.1857278322749</v>
       </c>
       <c r="P15" t="n">
-        <v>120.6495533449843</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>131.9742862901104</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>204.9161881242767</v>
+        <v>162.1010486195507</v>
       </c>
       <c r="M18" t="n">
-        <v>197.7426589510526</v>
+        <v>201.1586111617382</v>
       </c>
       <c r="N18" t="n">
-        <v>101.9441062019114</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O18" t="n">
-        <v>205.1857278322749</v>
+        <v>120.6409106178089</v>
       </c>
       <c r="P18" t="n">
-        <v>205.1943705594503</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>131.9742862901104</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>120.3713709098107</v>
+        <v>204.9161881242767</v>
       </c>
       <c r="M21" t="n">
         <v>201.1586111617382</v>
       </c>
       <c r="N21" t="n">
-        <v>186.4889234163774</v>
+        <v>143.6737839116514</v>
       </c>
       <c r="O21" t="n">
-        <v>201.7697756215894</v>
+        <v>120.6409106178089</v>
       </c>
       <c r="P21" t="n">
-        <v>205.1943705594503</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9720,19 +9720,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
-        <v>204.9161881242767</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M24" t="n">
-        <v>201.1586111617382</v>
+        <v>158.3434716570122</v>
       </c>
       <c r="N24" t="n">
-        <v>186.4889234163774</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O24" t="n">
-        <v>120.6409106178089</v>
+        <v>205.1857278322749</v>
       </c>
       <c r="P24" t="n">
-        <v>162.3792310547242</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23258,22 +23258,22 @@
         <v>85.43098143720266</v>
       </c>
       <c r="C11" t="n">
-        <v>146.0940556550141</v>
+        <v>146.0940556550142</v>
       </c>
       <c r="D11" t="n">
-        <v>133.6607179160626</v>
+        <v>133.6607179160627</v>
       </c>
       <c r="E11" t="n">
-        <v>167.3674703354715</v>
+        <v>167.3674703354716</v>
       </c>
       <c r="F11" t="n">
-        <v>114.5429906993828</v>
+        <v>199.0878079138489</v>
       </c>
       <c r="G11" t="n">
-        <v>214.7145505302646</v>
+        <v>176.6762063405577</v>
       </c>
       <c r="H11" t="n">
-        <v>104.7468670351113</v>
+        <v>142.7852112248183</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.12798498931289</v>
+        <v>23.12798498931297</v>
       </c>
       <c r="T11" t="n">
-        <v>18.30111863217991</v>
+        <v>18.30111863217999</v>
       </c>
       <c r="U11" t="n">
-        <v>46.03812530998752</v>
+        <v>46.03812530998761</v>
       </c>
       <c r="V11" t="n">
-        <v>116.7683418829873</v>
+        <v>116.7683418829874</v>
       </c>
       <c r="W11" t="n">
-        <v>133.7850220996022</v>
+        <v>49.24020488513622</v>
       </c>
       <c r="X11" t="n">
-        <v>155.6712725685414</v>
+        <v>155.6712725685415</v>
       </c>
       <c r="Y11" t="n">
         <v>93.62930847781922</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.9757986516686</v>
+        <v>85.43098143720266</v>
       </c>
       <c r="C14" t="n">
-        <v>146.0940556550141</v>
+        <v>94.75496564182552</v>
       </c>
       <c r="D14" t="n">
-        <v>133.6607179160626</v>
+        <v>133.6607179160627</v>
       </c>
       <c r="E14" t="n">
-        <v>167.3674703354715</v>
+        <v>82.82265312100549</v>
       </c>
       <c r="F14" t="n">
-        <v>114.5429906993828</v>
+        <v>199.0878079138489</v>
       </c>
       <c r="G14" t="n">
-        <v>130.1697333157987</v>
+        <v>214.7145505302647</v>
       </c>
       <c r="H14" t="n">
         <v>142.7852112248183</v>
       </c>
       <c r="I14" t="n">
-        <v>36.42873081279465</v>
+        <v>36.42873081279474</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>18.30111863217999</v>
       </c>
       <c r="U14" t="n">
-        <v>46.03812530998752</v>
+        <v>46.03812530998761</v>
       </c>
       <c r="V14" t="n">
-        <v>83.73037050197854</v>
+        <v>116.7683418829874</v>
       </c>
       <c r="W14" t="n">
-        <v>133.7850220996022</v>
+        <v>133.7850220996023</v>
       </c>
       <c r="X14" t="n">
-        <v>155.6712725685414</v>
+        <v>71.12645535407546</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.62930847781922</v>
+        <v>178.1741256922853</v>
       </c>
     </row>
     <row r="15">
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
     </row>
     <row r="21">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1247124.003414204</v>
+        <v>1247124.003414203</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1247124.003414204</v>
+        <v>1247124.003414203</v>
       </c>
     </row>
     <row r="7">
@@ -26317,10 +26317,10 @@
         <v>220482.998794115</v>
       </c>
       <c r="D2" t="n">
-        <v>220482.998794115</v>
+        <v>220482.9987941149</v>
       </c>
       <c r="E2" t="n">
-        <v>189997.5222551199</v>
+        <v>189997.52225512</v>
       </c>
       <c r="F2" t="n">
         <v>189997.52225512</v>
@@ -26329,19 +26329,19 @@
         <v>220929.637214634</v>
       </c>
       <c r="H2" t="n">
-        <v>220929.637214634</v>
+        <v>220929.6372146339</v>
       </c>
       <c r="I2" t="n">
         <v>220929.637214634</v>
       </c>
       <c r="J2" t="n">
+        <v>220929.6372146342</v>
+      </c>
+      <c r="K2" t="n">
+        <v>220929.6372146342</v>
+      </c>
+      <c r="L2" t="n">
         <v>220929.6372146341</v>
-      </c>
-      <c r="K2" t="n">
-        <v>220929.6372146341</v>
-      </c>
-      <c r="L2" t="n">
-        <v>220929.6372146342</v>
       </c>
       <c r="M2" t="n">
         <v>220929.6372146342</v>
@@ -26350,10 +26350,10 @@
         <v>220929.6372146341</v>
       </c>
       <c r="O2" t="n">
-        <v>220929.6372146342</v>
+        <v>220929.6372146341</v>
       </c>
       <c r="P2" t="n">
-        <v>220929.6372146342</v>
+        <v>220929.6372146341</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272248.0407556371</v>
+        <v>272248.040755637</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105057.1604753342</v>
+        <v>105057.1604753343</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161150.2341536788</v>
+        <v>161150.2341536787</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105057.1604753342</v>
+        <v>105057.1604753344</v>
       </c>
       <c r="M3" t="n">
-        <v>18715.71856690191</v>
+        <v>18715.71856690184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65215.19438069731</v>
+        <v>65215.19438069729</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>488407.6697575154</v>
       </c>
       <c r="E4" t="n">
-        <v>382892.3279665352</v>
+        <v>382892.3279665351</v>
       </c>
       <c r="F4" t="n">
         <v>382892.3279665352</v>
@@ -26433,19 +26433,19 @@
         <v>453420.587080977</v>
       </c>
       <c r="H4" t="n">
+        <v>453420.587080977</v>
+      </c>
+      <c r="I4" t="n">
         <v>453420.5870809769</v>
-      </c>
-      <c r="I4" t="n">
-        <v>453420.587080977</v>
       </c>
       <c r="J4" t="n">
         <v>453902.5702029474</v>
       </c>
       <c r="K4" t="n">
+        <v>453902.5702029473</v>
+      </c>
+      <c r="L4" t="n">
         <v>453902.5702029474</v>
-      </c>
-      <c r="L4" t="n">
-        <v>453902.5702029473</v>
       </c>
       <c r="M4" t="n">
         <v>453523.1062128386</v>
@@ -26454,10 +26454,10 @@
         <v>453523.1062128386</v>
       </c>
       <c r="O4" t="n">
+        <v>453523.1062128386</v>
+      </c>
+      <c r="P4" t="n">
         <v>453523.1062128385</v>
-      </c>
-      <c r="P4" t="n">
-        <v>453523.1062128386</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24571.35877862007</v>
+        <v>24571.35877862008</v>
       </c>
       <c r="F5" t="n">
-        <v>24571.35877862007</v>
+        <v>24571.35877862008</v>
       </c>
       <c r="G5" t="n">
-        <v>35611.42180862116</v>
+        <v>35611.42180862118</v>
       </c>
       <c r="H5" t="n">
-        <v>35611.42180862116</v>
+        <v>35611.42180862117</v>
       </c>
       <c r="I5" t="n">
-        <v>35611.42180862116</v>
+        <v>35611.42180862117</v>
       </c>
       <c r="J5" t="n">
         <v>47598.27644989196</v>
@@ -26497,19 +26497,19 @@
         <v>47598.27644989196</v>
       </c>
       <c r="L5" t="n">
-        <v>47598.27644989196</v>
+        <v>47598.27644989197</v>
       </c>
       <c r="M5" t="n">
-        <v>44424.71624350352</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="N5" t="n">
-        <v>44424.71624350352</v>
+        <v>44424.71624350351</v>
       </c>
       <c r="O5" t="n">
         <v>44424.71624350352</v>
       </c>
       <c r="P5" t="n">
-        <v>44424.71624350352</v>
+        <v>44424.71624350351</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301552.2709634004</v>
+        <v>-301556.7373476056</v>
       </c>
       <c r="C6" t="n">
-        <v>-301552.2709634004</v>
+        <v>-301556.7373476056</v>
       </c>
       <c r="D6" t="n">
-        <v>-301552.2709634004</v>
+        <v>-301556.7373476056</v>
       </c>
       <c r="E6" t="n">
-        <v>-489714.2052456726</v>
+        <v>-490023.5263952673</v>
       </c>
       <c r="F6" t="n">
-        <v>-217466.1644900354</v>
+        <v>-217775.4856396304</v>
       </c>
       <c r="G6" t="n">
-        <v>-373159.5321502983</v>
+        <v>-373159.5321502986</v>
       </c>
       <c r="H6" t="n">
         <v>-268102.3716749641</v>
       </c>
       <c r="I6" t="n">
-        <v>-268102.3716749642</v>
+        <v>-268102.3716749641</v>
       </c>
       <c r="J6" t="n">
-        <v>-441721.443591884</v>
+        <v>-441721.4435918839</v>
       </c>
       <c r="K6" t="n">
-        <v>-280571.2094382052</v>
+        <v>-280571.2094382051</v>
       </c>
       <c r="L6" t="n">
-        <v>-385628.3699135393</v>
+        <v>-385628.3699135396</v>
       </c>
       <c r="M6" t="n">
-        <v>-295733.9038086098</v>
+        <v>-295733.9038086097</v>
       </c>
       <c r="N6" t="n">
         <v>-277018.1852417079</v>
@@ -26561,7 +26561,7 @@
         <v>-342233.3796224052</v>
       </c>
       <c r="P6" t="n">
-        <v>-277018.1852417079</v>
+        <v>-277018.1852417078</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F2" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="G2" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="H2" t="n">
         <v>335.4328923203324</v>
@@ -26722,10 +26722,10 @@
         <v>236.2350917786668</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="F4" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="G4" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="H4" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="I4" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2073043075446</v>
+        <v>451.2073043075447</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2073043075446</v>
+        <v>451.2073043075447</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2073043075446</v>
+        <v>451.2073043075447</v>
       </c>
       <c r="M4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930787</v>
       </c>
       <c r="N4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930784</v>
       </c>
       <c r="O4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930784</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6624870930785</v>
+        <v>366.6624870930784</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>131.3214505941677</v>
+        <v>131.3214505941679</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.51899297587164</v>
+        <v>81.51899297587153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3214505941678</v>
+        <v>131.321450594168</v>
       </c>
       <c r="M2" t="n">
-        <v>23.39464820862739</v>
+        <v>23.3946482086273</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587164</v>
+        <v>81.51899297587161</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.6624870930786</v>
+        <v>366.6624870930787</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3214505941677</v>
+        <v>131.3214505941679</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587164</v>
+        <v>81.51899297587153</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="C11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="D11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="E11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="G11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="H11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="I11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="J11" t="n">
-        <v>152.7027579678909</v>
+        <v>152.7027579678913</v>
       </c>
       <c r="K11" t="n">
-        <v>5.177760637567111</v>
+        <v>5.177760637567104</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,34 +28129,34 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.34037157088131</v>
+        <v>13.3403715708813</v>
       </c>
       <c r="Q11" t="n">
         <v>88.39635779869053</v>
       </c>
       <c r="R11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="S11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="T11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="12">
@@ -28190,7 +28190,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J12" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769374</v>
       </c>
       <c r="S12" t="n">
-        <v>132.2175793782627</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T12" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U12" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V12" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W12" t="n">
-        <v>182.1597663625456</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X12" t="n">
-        <v>132.7680972250046</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.1114417261647</v>
+        <v>194.0060495177489</v>
       </c>
     </row>
     <row r="13">
@@ -28245,25 +28245,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>204.1114417261647</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>204.1114417261647</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>153.4822050286586</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="E13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="G13" t="n">
-        <v>168.6953110816783</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7758191012691</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="I13" t="n">
         <v>164.6886553331604</v>
@@ -28278,43 +28278,43 @@
         <v>31.33949144013923</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36038278515812</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N13" t="n">
         <v>15.68403999776787</v>
       </c>
       <c r="O13" t="n">
-        <v>36.70659427566597</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P13" t="n">
-        <v>142.3625888402768</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.1114417261647</v>
+        <v>164.1666462129921</v>
       </c>
       <c r="R13" t="n">
-        <v>204.1114417261647</v>
+        <v>203.184286794587</v>
       </c>
       <c r="S13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="T13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="C14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="D14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="E14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="G14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="H14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="I14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="J14" t="n">
-        <v>75.74779675012003</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K14" t="n">
-        <v>34.20651427522791</v>
+        <v>5.177760637567104</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28363,37 +28363,37 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>47.92620758011003</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.34037157088131</v>
+        <v>13.3403715708813</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.39635779869053</v>
+        <v>165.3513190164618</v>
       </c>
       <c r="R14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="S14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="T14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="15">
@@ -28409,25 +28409,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>74.62749786211248</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>74.27862190546236</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7380872222379</v>
       </c>
       <c r="H15" t="n">
-        <v>57.67022216085368</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I15" t="n">
         <v>107.1390224876151</v>
       </c>
       <c r="J15" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.3151594521598</v>
@@ -28457,22 +28457,22 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T15" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U15" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V15" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W15" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X15" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.1114417261647</v>
+        <v>194.006049517749</v>
       </c>
     </row>
     <row r="16">
@@ -28497,7 +28497,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>204.1114417261647</v>
+        <v>168.6953110816783</v>
       </c>
       <c r="H16" t="n">
         <v>165.7758191012691</v>
@@ -28506,52 +28506,52 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="K16" t="n">
-        <v>150.9399978522039</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L16" t="n">
-        <v>31.33949144013923</v>
+        <v>115.8843086546053</v>
       </c>
       <c r="M16" t="n">
-        <v>24.36038278515812</v>
+        <v>108.9051999996242</v>
       </c>
       <c r="N16" t="n">
-        <v>15.68403999776787</v>
+        <v>60.04386511783026</v>
       </c>
       <c r="O16" t="n">
-        <v>36.70659427566597</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P16" t="n">
-        <v>73.95430500190002</v>
+        <v>57.81777162581085</v>
       </c>
       <c r="Q16" t="n">
-        <v>204.1114417261647</v>
+        <v>126.7594634122123</v>
       </c>
       <c r="R16" t="n">
         <v>203.184286794587</v>
       </c>
       <c r="S16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="T16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.1114417261647</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="C17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="D17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="E17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="F17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="G17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="H17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="I17" t="n">
-        <v>240.5401725389594</v>
+        <v>240.5401725389593</v>
       </c>
       <c r="J17" t="n">
-        <v>75.74779675012003</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K17" t="n">
-        <v>5.177760637567111</v>
+        <v>5.177760637567104</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.34037157088131</v>
+        <v>13.3403715708813</v>
       </c>
       <c r="Q17" t="n">
         <v>88.39635779869053</v>
@@ -28615,22 +28615,22 @@
         <v>227.2394267154776</v>
       </c>
       <c r="T17" t="n">
-        <v>306.9573775728106</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1495670361522</v>
+        <v>334.6943842506183</v>
       </c>
       <c r="V17" t="n">
-        <v>323.2849702432982</v>
+        <v>323.2849702432984</v>
       </c>
       <c r="W17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="X17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
       <c r="Y17" t="n">
-        <v>335.4328923203324</v>
+        <v>335.4328923203325</v>
       </c>
     </row>
     <row r="18">
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.20567718319975</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>84.70524007407694</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>87.28275462533369</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>142.2533313963858</v>
       </c>
       <c r="G18" t="n">
         <v>148.7380872222379</v>
@@ -28664,7 +28664,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J18" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.3151594521598</v>
@@ -28697,19 +28697,19 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U18" t="n">
-        <v>152.6828235158181</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>182.1597663625455</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>132.7680972250045</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>138.8394689195596</v>
       </c>
     </row>
     <row r="19">
@@ -28752,13 +28752,13 @@
         <v>31.33949144013923</v>
       </c>
       <c r="M19" t="n">
-        <v>24.36038278515812</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N19" t="n">
         <v>15.68403999776787</v>
       </c>
       <c r="O19" t="n">
-        <v>36.70659427566597</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P19" t="n">
         <v>57.81777162581085</v>
@@ -28819,16 +28819,16 @@
         <v>335.4328923203324</v>
       </c>
       <c r="I20" t="n">
-        <v>292.060336152382</v>
+        <v>242.9453591731057</v>
       </c>
       <c r="J20" t="n">
-        <v>75.74779675012003</v>
+        <v>160.2926139645861</v>
       </c>
       <c r="K20" t="n">
-        <v>5.177760637567111</v>
+        <v>5.177760637567104</v>
       </c>
       <c r="L20" t="n">
-        <v>35.42984023518952</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.34037157088131</v>
+        <v>13.3403715708813</v>
       </c>
       <c r="Q20" t="n">
         <v>88.39635779869053</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>92.20567718319967</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28889,19 +28889,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>84.35636411742674</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>64.19327000777194</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H21" t="n">
-        <v>41.12776443376272</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I21" t="n">
         <v>107.1390224876151</v>
       </c>
       <c r="J21" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,13 +28922,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769374</v>
       </c>
       <c r="S21" t="n">
-        <v>106.9249190008586</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T21" t="n">
         <v>214.9446545048526</v>
@@ -28937,10 +28937,10 @@
         <v>237.2276407302841</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>156.1041037009362</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>250.134475853469</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -28989,13 +28989,13 @@
         <v>31.33949144013923</v>
       </c>
       <c r="M22" t="n">
-        <v>24.36038278515812</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N22" t="n">
         <v>15.68403999776787</v>
       </c>
       <c r="O22" t="n">
-        <v>36.70659427566597</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P22" t="n">
         <v>57.81777162581085</v>
@@ -29056,13 +29056,13 @@
         <v>335.4328923203324</v>
       </c>
       <c r="I23" t="n">
-        <v>240.5401725389594</v>
+        <v>240.5401725389593</v>
       </c>
       <c r="J23" t="n">
-        <v>75.74779675012003</v>
+        <v>148.1446918875521</v>
       </c>
       <c r="K23" t="n">
-        <v>5.177760637567111</v>
+        <v>5.177760637567104</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.34037157088131</v>
+        <v>13.3403715708813</v>
       </c>
       <c r="Q23" t="n">
         <v>88.39635779869053</v>
@@ -29086,16 +29086,16 @@
         <v>194.1163990953234</v>
       </c>
       <c r="S23" t="n">
-        <v>229.6446133496241</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T23" t="n">
         <v>222.4125603583446</v>
       </c>
       <c r="U23" t="n">
-        <v>334.6943842506182</v>
+        <v>250.1495670361522</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="W23" t="n">
         <v>335.4328923203324</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>92.20567718319967</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29129,16 +29129,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>64.19327000777196</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H24" t="n">
-        <v>51.2055066457271</v>
+        <v>125.6725816482287</v>
       </c>
       <c r="I24" t="n">
         <v>107.1390224876151</v>
       </c>
       <c r="J24" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,10 +29159,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769374</v>
       </c>
       <c r="S24" t="n">
         <v>191.4697362153245</v>
@@ -29174,16 +29174,16 @@
         <v>237.2276407302841</v>
       </c>
       <c r="V24" t="n">
-        <v>156.1041037009363</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>132.7680972250046</v>
+        <v>200.742806715928</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>138.8394689195596</v>
       </c>
     </row>
     <row r="25">
@@ -29226,13 +29226,13 @@
         <v>31.33949144013923</v>
       </c>
       <c r="M25" t="n">
-        <v>24.36038278515812</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N25" t="n">
         <v>15.68403999776787</v>
       </c>
       <c r="O25" t="n">
-        <v>36.70659427566597</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P25" t="n">
         <v>57.81777162581085</v>
@@ -29305,7 +29305,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700397</v>
       </c>
       <c r="N26" t="n">
         <v>212.8404435700394</v>
@@ -29320,7 +29320,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8404435700392</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="S26" t="n">
         <v>212.8404435700394</v>
@@ -29366,7 +29366,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>73.84496153015168</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H27" t="n">
         <v>125.6725816482287</v>
@@ -29375,7 +29375,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J27" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -29408,19 +29408,19 @@
         <v>212.8404435700394</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
         <v>212.8404435700394</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8404435700394</v>
+        <v>195.8442851569123</v>
       </c>
     </row>
     <row r="28">
@@ -29451,28 +29451,28 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I28" t="n">
-        <v>164.6886553331604</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8533137078861</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="K28" t="n">
         <v>66.39518063773794</v>
       </c>
       <c r="L28" t="n">
-        <v>212.8404435700394</v>
+        <v>31.33949144013923</v>
       </c>
       <c r="M28" t="n">
-        <v>24.36038278515812</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N28" t="n">
         <v>15.68403999776787</v>
       </c>
       <c r="O28" t="n">
-        <v>36.70659427566597</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P28" t="n">
-        <v>113.3687956373917</v>
+        <v>153.7308296682598</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7594634122123</v>
@@ -29557,7 +29557,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700399</v>
       </c>
       <c r="S29" t="n">
         <v>212.8404435700394</v>
@@ -29588,31 +29588,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>62.61216798219681</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>48.66485592299368</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H30" t="n">
         <v>125.6725816482287</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1390224876151</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3151594521598</v>
@@ -29651,7 +29651,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X30" t="n">
         <v>212.8404435700394</v>
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>212.8404435700394</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>179.8055734235008</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29679,7 +29679,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="G31" t="n">
         <v>168.6953110816783</v>
@@ -29700,13 +29700,13 @@
         <v>31.33949144013923</v>
       </c>
       <c r="M31" t="n">
-        <v>212.8404435700394</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N31" t="n">
-        <v>15.68403999776787</v>
+        <v>178.8224547876563</v>
       </c>
       <c r="O31" t="n">
-        <v>36.70659427566597</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P31" t="n">
         <v>57.81777162581085</v>
@@ -29791,7 +29791,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.840443570039</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="R32" t="n">
         <v>212.8404435700394</v>
@@ -29828,16 +29828,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>100.3492725553063</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>148.7380872222379</v>
@@ -29849,7 +29849,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J33" t="n">
-        <v>51.85943295535306</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29879,19 +29879,19 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U33" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W33" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="X33" t="n">
-        <v>9.669692749399275</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y33" t="n">
         <v>212.8404435700394</v>
@@ -29913,10 +29913,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>212.8404435700394</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>212.8404435700394</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.6953110816783</v>
@@ -29931,19 +29931,19 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K34" t="n">
-        <v>66.39518063773794</v>
+        <v>121.9462046493183</v>
       </c>
       <c r="L34" t="n">
-        <v>31.33949144013923</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="M34" t="n">
-        <v>116.3344952172317</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N34" t="n">
         <v>15.68403999776787</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70659427566597</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P34" t="n">
         <v>57.81777162581085</v>
@@ -30007,22 +30007,22 @@
         <v>236.2350917786668</v>
       </c>
       <c r="J35" t="n">
-        <v>75.74779675012003</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="K35" t="n">
-        <v>236.2350917786668</v>
+        <v>5.177760637567104</v>
       </c>
       <c r="L35" t="n">
         <v>236.2350917786668</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>158.212364173608</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2350917786668</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>129.7610207443981</v>
       </c>
       <c r="P35" t="n">
         <v>236.2350917786668</v>
@@ -30031,7 +30031,7 @@
         <v>236.2350917786668</v>
       </c>
       <c r="R35" t="n">
-        <v>194.1163990953234</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="S35" t="n">
         <v>227.2394267154776</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30071,13 +30071,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.570783369729071</v>
+        <v>148.7380872222379</v>
       </c>
       <c r="H36" t="n">
         <v>125.6725816482287</v>
@@ -30107,13 +30107,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T36" t="n">
         <v>214.9446545048526</v>
@@ -30131,7 +30131,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>173.8019996131663</v>
       </c>
     </row>
     <row r="37">
@@ -30171,16 +30171,16 @@
         <v>66.39518063773794</v>
       </c>
       <c r="L37" t="n">
-        <v>31.33949144013923</v>
+        <v>149.0526899692847</v>
       </c>
       <c r="M37" t="n">
-        <v>142.0735813143036</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N37" t="n">
         <v>15.68403999776787</v>
       </c>
       <c r="O37" t="n">
-        <v>36.70659427566597</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P37" t="n">
         <v>57.81777162581085</v>
@@ -30244,10 +30244,10 @@
         <v>236.2350917786668</v>
       </c>
       <c r="J38" t="n">
-        <v>236.2350917786668</v>
+        <v>135.3941676900953</v>
       </c>
       <c r="K38" t="n">
-        <v>5.177760637567111</v>
+        <v>5.177760637567104</v>
       </c>
       <c r="L38" t="n">
         <v>236.2350917786668</v>
@@ -30259,7 +30259,7 @@
         <v>236.2350917786668</v>
       </c>
       <c r="O38" t="n">
-        <v>200.3310568569511</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P38" t="n">
         <v>236.2350917786668</v>
@@ -30268,13 +30268,13 @@
         <v>236.2350917786668</v>
       </c>
       <c r="R38" t="n">
-        <v>194.1163990953234</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2394267154776</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4125603583446</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="U38" t="n">
         <v>236.2350917786668</v>
@@ -30302,16 +30302,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7380872222379</v>
@@ -30323,7 +30323,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J39" t="n">
-        <v>51.85943295535306</v>
+        <v>13.04480356119406</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30353,13 +30353,13 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U39" t="n">
-        <v>130.4310461839331</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W39" t="n">
         <v>236.2350917786668</v>
@@ -30411,13 +30411,13 @@
         <v>149.0526899692847</v>
       </c>
       <c r="M40" t="n">
-        <v>24.36038278515812</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N40" t="n">
         <v>15.68403999776787</v>
       </c>
       <c r="O40" t="n">
-        <v>36.70659427566597</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P40" t="n">
         <v>57.81777162581085</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="C41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="D41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="F41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="G41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="H41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="I41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="J41" t="n">
-        <v>75.74779675012003</v>
+        <v>135.3941676900948</v>
       </c>
       <c r="K41" t="n">
-        <v>236.2350917786668</v>
+        <v>5.177760637567104</v>
       </c>
       <c r="L41" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>116.4206491735167</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="N41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="O41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="P41" t="n">
-        <v>13.34037157088131</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="R41" t="n">
-        <v>194.1163990953234</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="S41" t="n">
-        <v>227.2394267154776</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4125603583446</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="U41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
     </row>
     <row r="42">
@@ -30542,10 +30542,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.3151594521598</v>
@@ -30593,19 +30593,19 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U42" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V42" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>71.23156021960884</v>
       </c>
       <c r="Y42" t="n">
-        <v>96.77145999842037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30642,28 +30642,28 @@
         <v>119.8533137078861</v>
       </c>
       <c r="K43" t="n">
-        <v>184.1083791668834</v>
+        <v>66.39518063773794</v>
       </c>
       <c r="L43" t="n">
         <v>31.33949144013923</v>
       </c>
       <c r="M43" t="n">
-        <v>24.36038278515812</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N43" t="n">
         <v>15.68403999776787</v>
       </c>
       <c r="O43" t="n">
-        <v>36.70659427566597</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P43" t="n">
         <v>57.81777162581085</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7594634122123</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="R43" t="n">
-        <v>203.184286794587</v>
+        <v>211.4218569572777</v>
       </c>
       <c r="S43" t="n">
         <v>235.3428244409627</v>
@@ -30672,13 +30672,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U43" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V43" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W43" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="C44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="D44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="E44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="F44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="G44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="H44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="I44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="J44" t="n">
-        <v>236.2350917786668</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K44" t="n">
-        <v>5.177760637567111</v>
+        <v>73.81979664073134</v>
       </c>
       <c r="L44" t="n">
-        <v>236.2350917786668</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="N44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="P44" t="n">
-        <v>135.3941676900962</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="R44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="S44" t="n">
-        <v>236.2350917786668</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="U44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
     </row>
     <row r="45">
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>155.9928458693824</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>126.5662229135251</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>148.7380872222379</v>
       </c>
       <c r="H45" t="n">
-        <v>125.6725816482287</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>107.1390224876151</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.037534323606021</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3151594521598</v>
@@ -30830,16 +30830,16 @@
         <v>214.9446545048526</v>
       </c>
       <c r="U45" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W45" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30861,10 +30861,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>162.0811301811501</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="G46" t="n">
         <v>168.6953110816783</v>
@@ -30885,13 +30885,13 @@
         <v>31.33949144013923</v>
       </c>
       <c r="M46" t="n">
-        <v>24.36038278515812</v>
+        <v>24.36038278515811</v>
       </c>
       <c r="N46" t="n">
-        <v>133.3972385269133</v>
+        <v>15.68403999776787</v>
       </c>
       <c r="O46" t="n">
-        <v>36.70659427566597</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P46" t="n">
         <v>57.81777162581085</v>
@@ -30909,13 +30909,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U46" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V46" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W46" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31756,10 +31756,10 @@
         <v>4.290057967785498</v>
       </c>
       <c r="I11" t="n">
-        <v>16.14963601152696</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J11" t="n">
-        <v>35.55360014093344</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K11" t="n">
         <v>53.28563029119442</v>
@@ -31771,22 +31771,22 @@
         <v>73.55514621124527</v>
       </c>
       <c r="N11" t="n">
-        <v>74.74534537648101</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O11" t="n">
-        <v>70.57991011055478</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P11" t="n">
         <v>60.23832035542679</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.2364699005196</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R11" t="n">
         <v>26.31371696022516</v>
       </c>
       <c r="S11" t="n">
-        <v>9.545680062581432</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T11" t="n">
         <v>1.833734041643454</v>
@@ -31835,7 +31835,7 @@
         <v>2.164635274668056</v>
       </c>
       <c r="I12" t="n">
-        <v>7.716796960101835</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J12" t="n">
         <v>21.17548067739537</v>
@@ -31844,19 +31844,19 @@
         <v>36.19226925860755</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66497242163584</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M12" t="n">
-        <v>56.78972743759017</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N12" t="n">
-        <v>58.29278253975524</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O12" t="n">
-        <v>53.32650760441327</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P12" t="n">
-        <v>42.79922370049856</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q12" t="n">
         <v>28.61014760851004</v>
@@ -31865,13 +31865,13 @@
         <v>13.91579334614033</v>
       </c>
       <c r="S12" t="n">
-        <v>4.163138232615445</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9034059116348513</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01474547189828376</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>1.6706377931708</v>
       </c>
       <c r="I13" t="n">
-        <v>5.650787136819021</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J13" t="n">
         <v>13.28481607105245</v>
@@ -31947,7 +31947,7 @@
         <v>3.274655060847055</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8028627431393406</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024931161454479</v>
@@ -31993,10 +31993,10 @@
         <v>4.290057967785498</v>
       </c>
       <c r="I14" t="n">
-        <v>16.14963601152696</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J14" t="n">
-        <v>35.55360014093344</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K14" t="n">
         <v>53.28563029119442</v>
@@ -32008,22 +32008,22 @@
         <v>73.55514621124527</v>
       </c>
       <c r="N14" t="n">
-        <v>74.74534537648101</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O14" t="n">
-        <v>70.57991011055478</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P14" t="n">
         <v>60.23832035542679</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.2364699005196</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R14" t="n">
         <v>26.31371696022516</v>
       </c>
       <c r="S14" t="n">
-        <v>9.545680062581432</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T14" t="n">
         <v>1.833734041643454</v>
@@ -32072,7 +32072,7 @@
         <v>2.164635274668056</v>
       </c>
       <c r="I15" t="n">
-        <v>7.716796960101835</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J15" t="n">
         <v>21.17548067739537</v>
@@ -32081,19 +32081,19 @@
         <v>36.19226925860755</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66497242163584</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M15" t="n">
-        <v>56.78972743759017</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N15" t="n">
-        <v>58.29278253975524</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O15" t="n">
-        <v>53.32650760441327</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P15" t="n">
-        <v>42.79922370049856</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q15" t="n">
         <v>28.61014760851004</v>
@@ -32102,13 +32102,13 @@
         <v>13.91579334614033</v>
       </c>
       <c r="S15" t="n">
-        <v>4.163138232615445</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9034059116348513</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01474547189828376</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>1.6706377931708</v>
       </c>
       <c r="I16" t="n">
-        <v>5.650787136819021</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J16" t="n">
         <v>13.28481607105245</v>
@@ -32184,7 +32184,7 @@
         <v>3.274655060847055</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8028627431393406</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024931161454479</v>
@@ -32230,10 +32230,10 @@
         <v>4.290057967785498</v>
       </c>
       <c r="I17" t="n">
-        <v>16.14963601152696</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J17" t="n">
-        <v>35.55360014093344</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K17" t="n">
         <v>53.28563029119442</v>
@@ -32245,22 +32245,22 @@
         <v>73.55514621124527</v>
       </c>
       <c r="N17" t="n">
-        <v>74.74534537648101</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O17" t="n">
-        <v>70.57991011055478</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P17" t="n">
         <v>60.23832035542679</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.2364699005196</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R17" t="n">
         <v>26.31371696022516</v>
       </c>
       <c r="S17" t="n">
-        <v>9.545680062581432</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T17" t="n">
         <v>1.833734041643454</v>
@@ -32309,7 +32309,7 @@
         <v>2.164635274668056</v>
       </c>
       <c r="I18" t="n">
-        <v>7.716796960101835</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J18" t="n">
         <v>21.17548067739537</v>
@@ -32318,19 +32318,19 @@
         <v>36.19226925860755</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66497242163584</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M18" t="n">
-        <v>56.78972743759017</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N18" t="n">
-        <v>58.29278253975524</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O18" t="n">
-        <v>53.32650760441327</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P18" t="n">
-        <v>42.79922370049856</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q18" t="n">
         <v>28.61014760851004</v>
@@ -32339,13 +32339,13 @@
         <v>13.91579334614033</v>
       </c>
       <c r="S18" t="n">
-        <v>4.163138232615445</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9034059116348513</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01474547189828376</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,7 +32388,7 @@
         <v>1.6706377931708</v>
       </c>
       <c r="I19" t="n">
-        <v>5.650787136819021</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J19" t="n">
         <v>13.28481607105245</v>
@@ -32421,7 +32421,7 @@
         <v>3.274655060847055</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8028627431393406</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024931161454479</v>
@@ -32467,10 +32467,10 @@
         <v>4.290057967785498</v>
       </c>
       <c r="I20" t="n">
-        <v>16.14963601152696</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J20" t="n">
-        <v>35.55360014093344</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K20" t="n">
         <v>53.28563029119442</v>
@@ -32482,22 +32482,22 @@
         <v>73.55514621124527</v>
       </c>
       <c r="N20" t="n">
-        <v>74.74534537648101</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O20" t="n">
-        <v>70.57991011055478</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P20" t="n">
         <v>60.23832035542679</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.2364699005196</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R20" t="n">
         <v>26.31371696022516</v>
       </c>
       <c r="S20" t="n">
-        <v>9.545680062581432</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T20" t="n">
         <v>1.833734041643454</v>
@@ -32546,7 +32546,7 @@
         <v>2.164635274668056</v>
       </c>
       <c r="I21" t="n">
-        <v>7.716796960101835</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J21" t="n">
         <v>21.17548067739537</v>
@@ -32555,19 +32555,19 @@
         <v>36.19226925860755</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66497242163584</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M21" t="n">
-        <v>56.78972743759017</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N21" t="n">
-        <v>58.29278253975524</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O21" t="n">
-        <v>53.32650760441327</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P21" t="n">
-        <v>42.79922370049856</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q21" t="n">
         <v>28.61014760851004</v>
@@ -32576,13 +32576,13 @@
         <v>13.91579334614033</v>
       </c>
       <c r="S21" t="n">
-        <v>4.163138232615445</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9034059116348513</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01474547189828376</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,7 +32625,7 @@
         <v>1.6706377931708</v>
       </c>
       <c r="I22" t="n">
-        <v>5.650787136819021</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J22" t="n">
         <v>13.28481607105245</v>
@@ -32658,7 +32658,7 @@
         <v>3.274655060847055</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8028627431393406</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024931161454479</v>
@@ -32704,10 +32704,10 @@
         <v>4.290057967785498</v>
       </c>
       <c r="I23" t="n">
-        <v>16.14963601152696</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J23" t="n">
-        <v>35.55360014093344</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K23" t="n">
         <v>53.28563029119442</v>
@@ -32719,22 +32719,22 @@
         <v>73.55514621124527</v>
       </c>
       <c r="N23" t="n">
-        <v>74.74534537648101</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O23" t="n">
-        <v>70.57991011055478</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P23" t="n">
         <v>60.23832035542679</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.2364699005196</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R23" t="n">
         <v>26.31371696022516</v>
       </c>
       <c r="S23" t="n">
-        <v>9.545680062581432</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T23" t="n">
         <v>1.833734041643454</v>
@@ -32783,7 +32783,7 @@
         <v>2.164635274668056</v>
       </c>
       <c r="I24" t="n">
-        <v>7.716796960101835</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J24" t="n">
         <v>21.17548067739537</v>
@@ -32792,19 +32792,19 @@
         <v>36.19226925860755</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66497242163584</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M24" t="n">
-        <v>56.78972743759017</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N24" t="n">
-        <v>58.29278253975524</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O24" t="n">
-        <v>53.32650760441327</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P24" t="n">
-        <v>42.79922370049856</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q24" t="n">
         <v>28.61014760851004</v>
@@ -32813,13 +32813,13 @@
         <v>13.91579334614033</v>
       </c>
       <c r="S24" t="n">
-        <v>4.163138232615445</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9034059116348513</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01474547189828376</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,7 +32862,7 @@
         <v>1.6706377931708</v>
       </c>
       <c r="I25" t="n">
-        <v>5.650787136819021</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J25" t="n">
         <v>13.28481607105245</v>
@@ -32895,7 +32895,7 @@
         <v>3.274655060847055</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8028627431393406</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024931161454479</v>
@@ -32941,10 +32941,10 @@
         <v>4.290057967785498</v>
       </c>
       <c r="I26" t="n">
-        <v>16.14963601152696</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J26" t="n">
-        <v>35.55360014093344</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K26" t="n">
         <v>53.28563029119442</v>
@@ -32956,22 +32956,22 @@
         <v>73.55514621124527</v>
       </c>
       <c r="N26" t="n">
-        <v>74.74534537648101</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O26" t="n">
-        <v>70.57991011055478</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P26" t="n">
         <v>60.23832035542679</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.2364699005196</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R26" t="n">
         <v>26.31371696022516</v>
       </c>
       <c r="S26" t="n">
-        <v>9.545680062581432</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T26" t="n">
         <v>1.833734041643454</v>
@@ -33020,7 +33020,7 @@
         <v>2.164635274668056</v>
       </c>
       <c r="I27" t="n">
-        <v>7.716796960101835</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J27" t="n">
         <v>21.17548067739537</v>
@@ -33029,19 +33029,19 @@
         <v>36.19226925860755</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66497242163584</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M27" t="n">
-        <v>56.78972743759017</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N27" t="n">
-        <v>58.29278253975524</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O27" t="n">
-        <v>53.32650760441327</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P27" t="n">
-        <v>42.79922370049856</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q27" t="n">
         <v>28.61014760851004</v>
@@ -33050,13 +33050,13 @@
         <v>13.91579334614033</v>
       </c>
       <c r="S27" t="n">
-        <v>4.163138232615445</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9034059116348513</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01474547189828376</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,7 +33099,7 @@
         <v>1.6706377931708</v>
       </c>
       <c r="I28" t="n">
-        <v>5.650787136819021</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J28" t="n">
         <v>13.28481607105245</v>
@@ -33132,7 +33132,7 @@
         <v>3.274655060847055</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8028627431393406</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024931161454479</v>
@@ -33178,10 +33178,10 @@
         <v>4.290057967785498</v>
       </c>
       <c r="I29" t="n">
-        <v>16.14963601152696</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J29" t="n">
-        <v>35.55360014093344</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K29" t="n">
         <v>53.28563029119442</v>
@@ -33193,22 +33193,22 @@
         <v>73.55514621124527</v>
       </c>
       <c r="N29" t="n">
-        <v>74.74534537648101</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O29" t="n">
-        <v>70.57991011055478</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P29" t="n">
         <v>60.23832035542679</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.2364699005196</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R29" t="n">
         <v>26.31371696022516</v>
       </c>
       <c r="S29" t="n">
-        <v>9.545680062581432</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T29" t="n">
         <v>1.833734041643454</v>
@@ -33257,7 +33257,7 @@
         <v>2.164635274668056</v>
       </c>
       <c r="I30" t="n">
-        <v>7.716796960101835</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J30" t="n">
         <v>21.17548067739537</v>
@@ -33266,19 +33266,19 @@
         <v>36.19226925860755</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66497242163584</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M30" t="n">
-        <v>56.78972743759017</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N30" t="n">
-        <v>58.29278253975524</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O30" t="n">
-        <v>53.32650760441327</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P30" t="n">
-        <v>42.79922370049856</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q30" t="n">
         <v>28.61014760851004</v>
@@ -33287,13 +33287,13 @@
         <v>13.91579334614033</v>
       </c>
       <c r="S30" t="n">
-        <v>4.163138232615445</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9034059116348513</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01474547189828376</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,7 +33336,7 @@
         <v>1.6706377931708</v>
       </c>
       <c r="I31" t="n">
-        <v>5.650787136819021</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J31" t="n">
         <v>13.28481607105245</v>
@@ -33369,7 +33369,7 @@
         <v>3.274655060847055</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8028627431393406</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024931161454479</v>
@@ -33415,10 +33415,10 @@
         <v>4.290057967785498</v>
       </c>
       <c r="I32" t="n">
-        <v>16.14963601152696</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J32" t="n">
-        <v>35.55360014093344</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K32" t="n">
         <v>53.28563029119442</v>
@@ -33430,22 +33430,22 @@
         <v>73.55514621124527</v>
       </c>
       <c r="N32" t="n">
-        <v>74.74534537648101</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O32" t="n">
-        <v>70.57991011055478</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P32" t="n">
         <v>60.23832035542679</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.2364699005196</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R32" t="n">
         <v>26.31371696022516</v>
       </c>
       <c r="S32" t="n">
-        <v>9.545680062581432</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T32" t="n">
         <v>1.833734041643454</v>
@@ -33494,7 +33494,7 @@
         <v>2.164635274668056</v>
       </c>
       <c r="I33" t="n">
-        <v>7.716796960101835</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J33" t="n">
         <v>21.17548067739537</v>
@@ -33503,19 +33503,19 @@
         <v>36.19226925860755</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66497242163584</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M33" t="n">
-        <v>56.78972743759017</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N33" t="n">
-        <v>58.29278253975524</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O33" t="n">
-        <v>53.32650760441327</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P33" t="n">
-        <v>42.79922370049856</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q33" t="n">
         <v>28.61014760851004</v>
@@ -33524,13 +33524,13 @@
         <v>13.91579334614033</v>
       </c>
       <c r="S33" t="n">
-        <v>4.163138232615445</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9034059116348513</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01474547189828376</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,7 +33573,7 @@
         <v>1.6706377931708</v>
       </c>
       <c r="I34" t="n">
-        <v>5.650787136819021</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J34" t="n">
         <v>13.28481607105245</v>
@@ -33606,7 +33606,7 @@
         <v>3.274655060847055</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8028627431393406</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024931161454479</v>
@@ -33652,10 +33652,10 @@
         <v>4.290057967785498</v>
       </c>
       <c r="I35" t="n">
-        <v>16.14963601152696</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J35" t="n">
-        <v>35.55360014093344</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K35" t="n">
         <v>53.28563029119442</v>
@@ -33667,22 +33667,22 @@
         <v>73.55514621124527</v>
       </c>
       <c r="N35" t="n">
-        <v>74.74534537648101</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O35" t="n">
-        <v>70.57991011055478</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P35" t="n">
         <v>60.23832035542679</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.2364699005196</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R35" t="n">
         <v>26.31371696022516</v>
       </c>
       <c r="S35" t="n">
-        <v>9.545680062581432</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T35" t="n">
         <v>1.833734041643454</v>
@@ -33731,7 +33731,7 @@
         <v>2.164635274668056</v>
       </c>
       <c r="I36" t="n">
-        <v>7.716796960101835</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J36" t="n">
         <v>21.17548067739537</v>
@@ -33740,19 +33740,19 @@
         <v>36.19226925860755</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66497242163584</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M36" t="n">
-        <v>56.78972743759017</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N36" t="n">
-        <v>58.29278253975524</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O36" t="n">
-        <v>53.32650760441327</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P36" t="n">
-        <v>42.79922370049856</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q36" t="n">
         <v>28.61014760851004</v>
@@ -33761,13 +33761,13 @@
         <v>13.91579334614033</v>
       </c>
       <c r="S36" t="n">
-        <v>4.163138232615445</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9034059116348513</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01474547189828376</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,7 +33810,7 @@
         <v>1.6706377931708</v>
       </c>
       <c r="I37" t="n">
-        <v>5.650787136819021</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J37" t="n">
         <v>13.28481607105245</v>
@@ -33843,7 +33843,7 @@
         <v>3.274655060847055</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8028627431393406</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024931161454479</v>
@@ -33889,10 +33889,10 @@
         <v>4.290057967785498</v>
       </c>
       <c r="I38" t="n">
-        <v>16.14963601152696</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J38" t="n">
-        <v>35.55360014093344</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K38" t="n">
         <v>53.28563029119442</v>
@@ -33904,22 +33904,22 @@
         <v>73.55514621124527</v>
       </c>
       <c r="N38" t="n">
-        <v>74.74534537648101</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O38" t="n">
-        <v>70.57991011055478</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P38" t="n">
         <v>60.23832035542679</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.2364699005196</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R38" t="n">
         <v>26.31371696022516</v>
       </c>
       <c r="S38" t="n">
-        <v>9.545680062581432</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T38" t="n">
         <v>1.833734041643454</v>
@@ -33968,7 +33968,7 @@
         <v>2.164635274668056</v>
       </c>
       <c r="I39" t="n">
-        <v>7.716796960101835</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J39" t="n">
         <v>21.17548067739537</v>
@@ -33977,19 +33977,19 @@
         <v>36.19226925860755</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66497242163584</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M39" t="n">
-        <v>56.78972743759017</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N39" t="n">
-        <v>58.29278253975524</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O39" t="n">
-        <v>53.32650760441327</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P39" t="n">
-        <v>42.79922370049856</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q39" t="n">
         <v>28.61014760851004</v>
@@ -33998,13 +33998,13 @@
         <v>13.91579334614033</v>
       </c>
       <c r="S39" t="n">
-        <v>4.163138232615445</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9034059116348513</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01474547189828376</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,7 +34047,7 @@
         <v>1.6706377931708</v>
       </c>
       <c r="I40" t="n">
-        <v>5.650787136819021</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J40" t="n">
         <v>13.28481607105245</v>
@@ -34080,7 +34080,7 @@
         <v>3.274655060847055</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8028627431393406</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024931161454479</v>
@@ -34126,10 +34126,10 @@
         <v>4.290057967785498</v>
       </c>
       <c r="I41" t="n">
-        <v>16.14963601152696</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J41" t="n">
-        <v>35.55360014093344</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K41" t="n">
         <v>53.28563029119442</v>
@@ -34141,22 +34141,22 @@
         <v>73.55514621124527</v>
       </c>
       <c r="N41" t="n">
-        <v>74.74534537648101</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O41" t="n">
-        <v>70.57991011055478</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P41" t="n">
         <v>60.23832035542679</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.2364699005196</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R41" t="n">
         <v>26.31371696022516</v>
       </c>
       <c r="S41" t="n">
-        <v>9.545680062581432</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T41" t="n">
         <v>1.833734041643454</v>
@@ -34205,7 +34205,7 @@
         <v>2.164635274668056</v>
       </c>
       <c r="I42" t="n">
-        <v>7.716796960101835</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J42" t="n">
         <v>21.17548067739537</v>
@@ -34214,19 +34214,19 @@
         <v>36.19226925860755</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66497242163584</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M42" t="n">
-        <v>56.78972743759017</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N42" t="n">
-        <v>58.29278253975524</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O42" t="n">
-        <v>53.32650760441327</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P42" t="n">
-        <v>42.79922370049856</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q42" t="n">
         <v>28.61014760851004</v>
@@ -34235,13 +34235,13 @@
         <v>13.91579334614033</v>
       </c>
       <c r="S42" t="n">
-        <v>4.163138232615445</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9034059116348513</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01474547189828376</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>1.6706377931708</v>
       </c>
       <c r="I43" t="n">
-        <v>5.650787136819021</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J43" t="n">
         <v>13.28481607105245</v>
@@ -34317,7 +34317,7 @@
         <v>3.274655060847055</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8028627431393406</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024931161454479</v>
@@ -34363,10 +34363,10 @@
         <v>4.290057967785498</v>
       </c>
       <c r="I44" t="n">
-        <v>16.14963601152696</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J44" t="n">
-        <v>35.55360014093344</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K44" t="n">
         <v>53.28563029119442</v>
@@ -34378,22 +34378,22 @@
         <v>73.55514621124527</v>
       </c>
       <c r="N44" t="n">
-        <v>74.74534537648101</v>
+        <v>74.74534537648103</v>
       </c>
       <c r="O44" t="n">
-        <v>70.57991011055478</v>
+        <v>70.57991011055479</v>
       </c>
       <c r="P44" t="n">
         <v>60.23832035542679</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.2364699005196</v>
+        <v>45.23646990051961</v>
       </c>
       <c r="R44" t="n">
         <v>26.31371696022516</v>
       </c>
       <c r="S44" t="n">
-        <v>9.545680062581432</v>
+        <v>9.545680062581434</v>
       </c>
       <c r="T44" t="n">
         <v>1.833734041643454</v>
@@ -34442,7 +34442,7 @@
         <v>2.164635274668056</v>
       </c>
       <c r="I45" t="n">
-        <v>7.716796960101835</v>
+        <v>7.716796960101836</v>
       </c>
       <c r="J45" t="n">
         <v>21.17548067739537</v>
@@ -34451,19 +34451,19 @@
         <v>36.19226925860755</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66497242163584</v>
+        <v>48.66497242163585</v>
       </c>
       <c r="M45" t="n">
-        <v>56.78972743759017</v>
+        <v>56.78972743759019</v>
       </c>
       <c r="N45" t="n">
-        <v>58.29278253975524</v>
+        <v>58.29278253975525</v>
       </c>
       <c r="O45" t="n">
-        <v>53.32650760441327</v>
+        <v>53.32650760441328</v>
       </c>
       <c r="P45" t="n">
-        <v>42.79922370049856</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q45" t="n">
         <v>28.61014760851004</v>
@@ -34472,13 +34472,13 @@
         <v>13.91579334614033</v>
       </c>
       <c r="S45" t="n">
-        <v>4.163138232615445</v>
+        <v>4.163138232615446</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9034059116348513</v>
+        <v>0.9034059116348514</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01474547189828376</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,7 +34521,7 @@
         <v>1.6706377931708</v>
       </c>
       <c r="I46" t="n">
-        <v>5.650787136819021</v>
+        <v>5.650787136819022</v>
       </c>
       <c r="J46" t="n">
         <v>13.28481607105245</v>
@@ -34554,7 +34554,7 @@
         <v>3.274655060847055</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8028627431393406</v>
+        <v>0.8028627431393407</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024931161454479</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>76.95496121777083</v>
+        <v>76.95496121777128</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -35419,10 +35419,10 @@
         <v>83.81751137732803</v>
       </c>
       <c r="N11" t="n">
-        <v>78.26221480760582</v>
+        <v>78.26221480760583</v>
       </c>
       <c r="O11" t="n">
-        <v>36.61860963435595</v>
+        <v>36.61860963435596</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.995042630841294</v>
+        <v>9.995042630841212</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.39918729404055</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L12" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="N12" t="n">
-        <v>41.7296777097399</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="O12" t="n">
-        <v>84.54481721446598</v>
+        <v>41.72967770974001</v>
       </c>
       <c r="P12" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,25 +35541,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.49452106119659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>37.65426075419234</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8.299554777947865</v>
+        <v>58.92879147545389</v>
       </c>
       <c r="E13" t="n">
-        <v>62.43530051393969</v>
+        <v>62.43530051393961</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>65.18455950771795</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.41613064448629</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>38.33562262489552</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35583,13 +35583,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.35197831395236</v>
+        <v>37.40718280077982</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9271549315776575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>29.0287536376608</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>49.11497697927646</v>
@@ -35656,19 +35656,19 @@
         <v>83.81751137732803</v>
       </c>
       <c r="N14" t="n">
-        <v>78.26221480760582</v>
+        <v>78.26221480760583</v>
       </c>
       <c r="O14" t="n">
-        <v>84.54481721446598</v>
+        <v>36.61860963435596</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>76.95496121777128</v>
       </c>
       <c r="R14" t="n">
-        <v>9.995042630841294</v>
+        <v>9.995042630841212</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.39918729404055</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L15" t="n">
-        <v>41.7296777097399</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>84.54481721446598</v>
+        <v>41.72967770974002</v>
       </c>
       <c r="N15" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="O15" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35793,7 +35793,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35.41613064448637</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.25812801827861</v>
+        <v>84.25812801827854</v>
       </c>
       <c r="K16" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>44.3598251200624</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>16.13653337608917</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.35197831395236</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,10 +35893,10 @@
         <v>83.81751137732803</v>
       </c>
       <c r="N17" t="n">
-        <v>78.26221480760582</v>
+        <v>78.26221480760583</v>
       </c>
       <c r="O17" t="n">
-        <v>36.61860963435595</v>
+        <v>36.61860963435596</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35911,13 +35911,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="V17" t="n">
-        <v>2.405186634146186</v>
+        <v>2.405186634146416</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L18" t="n">
-        <v>84.54481721446598</v>
+        <v>41.72967770974002</v>
       </c>
       <c r="M18" t="n">
-        <v>81.12886500378045</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="O18" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,25 +36115,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>51.52016361342261</v>
+        <v>2.4051866341464</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>84.54481721446598</v>
+        <v>49.11497697927646</v>
       </c>
       <c r="M20" t="n">
         <v>83.81751137732803</v>
       </c>
       <c r="N20" t="n">
-        <v>78.26221480760582</v>
+        <v>78.26221480760583</v>
       </c>
       <c r="O20" t="n">
-        <v>36.61860963435595</v>
+        <v>36.61860963435596</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="M21" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="N21" t="n">
-        <v>84.54481721446598</v>
+        <v>41.72967770974001</v>
       </c>
       <c r="O21" t="n">
-        <v>81.12886500378046</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>72.39689513743205</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -36367,10 +36367,10 @@
         <v>83.81751137732803</v>
       </c>
       <c r="N23" t="n">
-        <v>78.26221480760582</v>
+        <v>78.26221480760583</v>
       </c>
       <c r="O23" t="n">
-        <v>36.61860963435595</v>
+        <v>36.61860963435596</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.405186634146559</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>14.55310871118041</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.39918729404055</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L24" t="n">
-        <v>84.54481721446598</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>84.54481721446598</v>
+        <v>41.72967770974002</v>
       </c>
       <c r="N24" t="n">
-        <v>84.54481721446598</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="P24" t="n">
-        <v>41.7296777097399</v>
+        <v>84.54481721446606</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0926468199194</v>
+        <v>137.0926468199193</v>
       </c>
       <c r="K26" t="n">
         <v>207.6626829324723</v>
@@ -36601,7 +36601,7 @@
         <v>261.9554205493158</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6579549473674</v>
+        <v>296.6579549473677</v>
       </c>
       <c r="N26" t="n">
         <v>291.1026583776452</v>
@@ -36613,10 +36613,10 @@
         <v>199.5000719991581</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4440857713489</v>
+        <v>124.4440857713488</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72404447471576</v>
+        <v>18.72404447471597</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.39918729404055</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L27" t="n">
         <v>119.9331728468309</v>
@@ -36689,7 +36689,7 @@
         <v>134.5818722735118</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71432073369495</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36747,16 +36747,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.15178823687896</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>92.9871298621533</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>181.5009521299002</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36768,7 +36768,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>55.55102401158081</v>
+        <v>95.91305804244895</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0926468199194</v>
+        <v>137.0926468199193</v>
       </c>
       <c r="K29" t="n">
         <v>207.6626829324723</v>
@@ -36850,10 +36850,10 @@
         <v>199.5000719991581</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4440857713489</v>
+        <v>124.4440857713488</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72404447471598</v>
+        <v>18.72404447471645</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.39918729404055</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L30" t="n">
         <v>119.9331728468309</v>
@@ -36926,7 +36926,7 @@
         <v>134.5818722735118</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71432073369495</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,10 +36963,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.22352290507129</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>13.34839245152841</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>73.9135613515927</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>188.4800607848813</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>163.1384147898885</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>296.6579549473674</v>
       </c>
       <c r="N32" t="n">
-        <v>291.1026583776452</v>
+        <v>291.1026583776453</v>
       </c>
       <c r="O32" t="n">
         <v>249.4590532043954</v>
@@ -37087,10 +37087,10 @@
         <v>199.5000719991581</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4440857713485</v>
+        <v>124.4440857713489</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72404447471602</v>
+        <v>18.72404447471604</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.39918729404055</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L33" t="n">
         <v>119.9331728468309</v>
@@ -37163,7 +37163,7 @@
         <v>134.5818722735118</v>
       </c>
       <c r="P33" t="n">
-        <v>85.71432073369495</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37209,10 +37209,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.16430235781442</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>73.91356135159276</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>55.55102401158034</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>181.5009521299002</v>
       </c>
       <c r="M34" t="n">
-        <v>91.97411243207362</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>160.4872950285468</v>
       </c>
       <c r="K35" t="n">
-        <v>231.0573311410997</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>285.3500687579433</v>
       </c>
       <c r="M35" t="n">
-        <v>320.0526031559948</v>
+        <v>83.81751137732803</v>
       </c>
       <c r="N35" t="n">
-        <v>78.26221480760582</v>
+        <v>236.4745789812138</v>
       </c>
       <c r="O35" t="n">
-        <v>166.3796303787541</v>
+        <v>272.8537014130227</v>
       </c>
       <c r="P35" t="n">
         <v>222.8947202077855</v>
@@ -37327,7 +37327,7 @@
         <v>147.8387339799763</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.11869268334341</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.39918729404055</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L36" t="n">
         <v>119.9331728468309</v>
@@ -37400,7 +37400,7 @@
         <v>134.5818722735118</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71432073369495</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37467,10 +37467,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>117.7131985291455</v>
       </c>
       <c r="M37" t="n">
-        <v>117.7131985291455</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>160.4872950285468</v>
+        <v>59.64637093997531</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37552,10 +37552,10 @@
         <v>83.81751137732803</v>
       </c>
       <c r="N38" t="n">
-        <v>314.4973065862726</v>
+        <v>314.4973065862727</v>
       </c>
       <c r="O38" t="n">
-        <v>236.9496664913071</v>
+        <v>272.8537014130227</v>
       </c>
       <c r="P38" t="n">
         <v>222.8947202077855</v>
@@ -37564,13 +37564,13 @@
         <v>147.8387339799763</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>42.11869268334341</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.995665063189231</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>13.82253142032221</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.39918729404055</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L39" t="n">
         <v>119.9331728468309</v>
@@ -37637,7 +37637,7 @@
         <v>134.5818722735118</v>
       </c>
       <c r="P39" t="n">
-        <v>85.71432073369495</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>59.64637093997479</v>
       </c>
       <c r="K41" t="n">
-        <v>231.0573311410997</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>285.3500687579433</v>
+        <v>49.11497697927646</v>
       </c>
       <c r="M41" t="n">
-        <v>200.2381605508447</v>
+        <v>320.0526031559949</v>
       </c>
       <c r="N41" t="n">
-        <v>314.4973065862726</v>
+        <v>314.4973065862727</v>
       </c>
       <c r="O41" t="n">
-        <v>272.8537014130227</v>
+        <v>272.8537014130229</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>222.8947202077856</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.8387339799763</v>
+        <v>147.8387339799764</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>42.1186926833435</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>8.995665063189316</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>13.82253142032229</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.39918729404055</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L42" t="n">
         <v>119.9331728468309</v>
@@ -37874,7 +37874,7 @@
         <v>134.5818722735118</v>
       </c>
       <c r="P42" t="n">
-        <v>85.71432073369495</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>117.7131985291455</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37956,10 +37956,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>109.4756283664546</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.237570162690664</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>160.4872950285468</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>68.64203600316424</v>
       </c>
       <c r="L44" t="n">
-        <v>285.3500687579433</v>
+        <v>49.11497697927646</v>
       </c>
       <c r="M44" t="n">
-        <v>83.81751137732803</v>
+        <v>320.0526031559949</v>
       </c>
       <c r="N44" t="n">
-        <v>314.4973065862726</v>
+        <v>314.4973065862727</v>
       </c>
       <c r="O44" t="n">
-        <v>272.8537014130227</v>
+        <v>272.8537014130228</v>
       </c>
       <c r="P44" t="n">
-        <v>122.0537961192149</v>
+        <v>222.8947202077856</v>
       </c>
       <c r="Q44" t="n">
         <v>147.8387339799763</v>
       </c>
       <c r="R44" t="n">
-        <v>42.11869268334341</v>
+        <v>42.11869268334347</v>
       </c>
       <c r="S44" t="n">
-        <v>8.995665063189229</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>13.82253142032221</v>
+        <v>13.82253142032227</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.39918729404055</v>
+        <v>39.39918729404056</v>
       </c>
       <c r="L45" t="n">
         <v>119.9331728468309</v>
@@ -38111,7 +38111,7 @@
         <v>134.5818722735118</v>
       </c>
       <c r="P45" t="n">
-        <v>85.71432073369495</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38157,10 +38157,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>20.40498896892512</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.30820956022021</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>117.7131985291455</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
